--- a/1лаба/таблички.xlsx
+++ b/1лаба/таблички.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6356DE-BB9B-4E7F-BE5A-84C9C3B66A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00642A5F-2912-47BE-BC7F-EC7C21846E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ожид част" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Коэф Пирсона" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="70">
   <si>
     <t>Столбец А4</t>
   </si>
@@ -136,16 +139,125 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>всего</t>
+  </si>
+  <si>
+    <t>Набл част</t>
+  </si>
+  <si>
+    <t>Ожид част</t>
+  </si>
+  <si>
+    <t>а4</t>
+  </si>
+  <si>
+    <t>а5</t>
+  </si>
+  <si>
+    <t>а12</t>
+  </si>
+  <si>
+    <t>а6</t>
+  </si>
+  <si>
+    <t>а13</t>
+  </si>
+  <si>
+    <t>наше к: 2</t>
+  </si>
+  <si>
+    <t>наше м: 3</t>
+  </si>
+  <si>
+    <t>м:3</t>
+  </si>
+  <si>
+    <t>м:14</t>
+  </si>
+  <si>
+    <t>м:2</t>
+  </si>
+  <si>
+    <t>значения статистик</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>хи для каждого столбца суммма</t>
+  </si>
+  <si>
+    <t>Альфа=0.01</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>0.9966485527801637</t>
+  </si>
+  <si>
+    <t>0.9995918959901602</t>
+  </si>
+  <si>
+    <t>0.9963151857668209</t>
+  </si>
+  <si>
+    <t>0.9991768872110932</t>
+  </si>
+  <si>
+    <t>0.9996730038959366</t>
+  </si>
+  <si>
+    <t>0.9978668143652917</t>
+  </si>
+  <si>
+    <t>0.9993949269549018</t>
+  </si>
+  <si>
+    <t>0.9996621388358949</t>
+  </si>
+  <si>
+    <t>0.9998506517235198</t>
+  </si>
+  <si>
+    <t>0.9993673386500109</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,16 +282,112 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -263,11 +471,236 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -284,6 +717,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -293,21 +735,171 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -590,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,10 +1226,10 @@
       <c r="D9" s="4">
         <v>193</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>1.23214286</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <f>(C9+1)/(C9+1+$E$9*(D9+1))</f>
         <v>0.4467223272767521</v>
       </c>
@@ -655,8 +1247,8 @@
       <c r="D10" s="4">
         <v>83</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9">
+      <c r="E10" s="10"/>
+      <c r="F10" s="6">
         <f t="shared" ref="F10:F11" si="0">(C10+1)/(C10+1+$E$9*(D10+1))</f>
         <v>0.2361623612053213</v>
       </c>
@@ -674,13 +1266,29 @@
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9">
+      <c r="E11" s="11"/>
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>0.61878452983974852</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B9:B11)</f>
+        <v>500</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C9:C11)</f>
+        <v>224</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D9:D11)</f>
+        <v>276</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>8</v>
@@ -702,7 +1310,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4">
@@ -714,16 +1322,16 @@
       <c r="D14" s="4">
         <v>193</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <f>(C14+1)/(C14+1+$E$9*(D14+1))</f>
         <v>0.4467223272767521</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4">
@@ -735,14 +1343,14 @@
       <c r="D15" s="4">
         <v>83</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9">
+      <c r="E15" s="13"/>
+      <c r="F15" s="6">
         <f t="shared" ref="F15:F16" si="1">(C15+1)/(C15+1+$E$9*(D15+1))</f>
         <v>0.2361623612053213</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4">
@@ -754,8 +1362,8 @@
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="9">
+      <c r="E16" s="14"/>
+      <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>0.61878452983974852</v>
       </c>
@@ -782,7 +1390,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5">
@@ -794,7 +1402,7 @@
       <c r="D19" s="4">
         <v>59</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="4">
@@ -803,7 +1411,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="4">
@@ -815,14 +1423,14 @@
       <c r="D20" s="4">
         <v>14</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="4">
         <f t="shared" ref="F20:F32" si="2">(C20+1)/(C20+1+$E$9*(D20+1))</f>
         <v>0.24507658600424231</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="4">
@@ -834,14 +1442,14 @@
       <c r="D21" s="4">
         <v>8</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
         <v>0.6314540053950779</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
@@ -853,14 +1461,14 @@
       <c r="D22" s="4">
         <v>35</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
         <v>0.1686746984700247</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="4">
@@ -872,14 +1480,14 @@
       <c r="D23" s="4">
         <v>7</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
         <v>0.28865979333829311</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="4">
@@ -891,14 +1499,14 @@
       <c r="D24" s="4">
         <v>25</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
         <v>0.27250608226535877</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="4">
@@ -910,14 +1518,14 @@
       <c r="D25" s="4">
         <v>18</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
         <v>0.33888048359546313</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="4">
@@ -929,14 +1537,14 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
         <v>0.54901960726899912</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="4">
@@ -948,14 +1556,14 @@
       <c r="D27" s="4">
         <v>18</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
         <v>0.64209664156375279</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="4">
@@ -967,14 +1575,14 @@
       <c r="D28" s="4">
         <v>23</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
         <v>0.4951219506398572</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="4">
@@ -986,14 +1594,14 @@
       <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
         <v>0.77860962526873523</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="4">
@@ -1005,14 +1613,14 @@
       <c r="D30" s="4">
         <v>5</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
         <v>0.57494866473105677</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="4">
@@ -1024,14 +1632,14 @@
       <c r="D31" s="4">
         <v>23</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
         <v>0.33653846102071006</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="4">
@@ -1041,12 +1649,12 @@
         <v>3</v>
       </c>
       <c r="D32" s="4">
-        <v>5</v>
-      </c>
-      <c r="E32" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="E32" s="14"/>
       <c r="F32" s="4">
-        <f t="shared" si="2"/>
-        <v>0.3510971781550889</v>
+        <f>(C32+1)/(C32+1+$E$9*(D32+1))</f>
+        <v>8.2717872793037314E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1071,7 +1679,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="4">
@@ -1083,7 +1691,7 @@
       <c r="D35" s="4">
         <v>123</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="4">
@@ -1092,7 +1700,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="4">
@@ -1104,7 +1712,7 @@
       <c r="D36" s="4">
         <v>153</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="4">
         <f>(C36+1)/(C36+1+$E$9*(D36+1))</f>
         <v>0.38141809236243207</v>
@@ -1132,7 +1740,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="4">
@@ -1144,7 +1752,7 @@
       <c r="D39" s="4">
         <v>246</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="4">
@@ -1153,7 +1761,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="4">
@@ -1165,14 +1773,14 @@
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="4">
         <f t="shared" ref="F40:F41" si="3">(C40+1)/(C40+1+$E$9*(D40+1))</f>
         <v>0.28865979333829311</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="4">
@@ -1184,7 +1792,7 @@
       <c r="D41" s="4">
         <v>29</v>
       </c>
-      <c r="E41" s="13"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="4">
         <f t="shared" si="3"/>
         <v>0.24507658600424231</v>
@@ -1201,4 +1809,2144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AE2613-1515-4604-9D53-617254825EF5}">
+  <dimension ref="B1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>385</v>
+      </c>
+      <c r="D3" s="4">
+        <v>192</v>
+      </c>
+      <c r="E3" s="4">
+        <v>193</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>385</v>
+      </c>
+      <c r="J3" s="19">
+        <f>D6*C3/C6</f>
+        <v>172.48</v>
+      </c>
+      <c r="K3" s="16">
+        <f>$E$6*C3/$C$6</f>
+        <v>212.52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>114</v>
+      </c>
+      <c r="D4" s="4">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4">
+        <v>83</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>114</v>
+      </c>
+      <c r="J4" s="19">
+        <f>$D$6*C4/$C$6</f>
+        <v>51.072000000000003</v>
+      </c>
+      <c r="K4" s="16">
+        <f>$E$6*C4/$C$6</f>
+        <v>62.927999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <f>$D$6*C5/$C$6</f>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="K5" s="16">
+        <f>$E$6*C5/$C$6</f>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D3:D5)</f>
+        <v>224</v>
+      </c>
+      <c r="E6">
+        <f>SUM(E3:E5)</f>
+        <v>276</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>385</v>
+      </c>
+      <c r="D9" s="4">
+        <v>192</v>
+      </c>
+      <c r="E9" s="4">
+        <v>193</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="4">
+        <v>385</v>
+      </c>
+      <c r="J9" s="19">
+        <f>$D$12*C9/$C$12</f>
+        <v>172.48</v>
+      </c>
+      <c r="K9" s="16">
+        <f>$E$12*C9/$C$12</f>
+        <v>212.52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>114</v>
+      </c>
+      <c r="D10" s="4">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4">
+        <v>83</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4">
+        <v>114</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" ref="J10:J11" si="0">$D$12*C10/$C$12</f>
+        <v>51.072000000000003</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" ref="K10:K11" si="1">$E$12*C10/$C$12</f>
+        <v>62.927999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <f>$D$12*C11/$C$12</f>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="1"/>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C9:C11)</f>
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D9:D11)</f>
+        <v>224</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E9:E11)</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUM(D15:E15)</f>
+        <v>105</v>
+      </c>
+      <c r="D15" s="4">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <f>SUM(D15:E15)</f>
+        <v>105</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="5">
+        <f>SUM(J15:K15)</f>
+        <v>105</v>
+      </c>
+      <c r="J15" s="19">
+        <f>$D$29*C15/$C$12</f>
+        <v>47.04</v>
+      </c>
+      <c r="K15" s="19">
+        <f>$E$29*C15/$C$12</f>
+        <v>57.96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F28" si="2">SUM(D16:E16)</f>
+        <v>19</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="4">
+        <v>19</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" ref="J16:J28" si="3">$D$29*C16/$C$12</f>
+        <v>8.5120000000000005</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" ref="K16:K28" si="4">$E$29*C16/$C$12</f>
+        <v>10.488</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4">
+        <v>26</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" si="3"/>
+        <v>11.648</v>
+      </c>
+      <c r="K17" s="19">
+        <f t="shared" si="4"/>
+        <v>14.352</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4">
+        <v>43</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" si="3"/>
+        <v>19.263999999999999</v>
+      </c>
+      <c r="K18" s="19">
+        <f t="shared" si="4"/>
+        <v>23.736000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="4">
+        <v>10</v>
+      </c>
+      <c r="J19" s="19">
+        <f>$D$29*C19/$C$12</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="K19" s="19">
+        <f t="shared" si="4"/>
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="4">
+        <v>36</v>
+      </c>
+      <c r="J20" s="19">
+        <f t="shared" si="3"/>
+        <v>16.128</v>
+      </c>
+      <c r="K20" s="19">
+        <f t="shared" si="4"/>
+        <v>19.872</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="4">
+        <v>29</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="3"/>
+        <v>12.992000000000001</v>
+      </c>
+      <c r="K21" s="19">
+        <f t="shared" si="4"/>
+        <v>16.007999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" si="3"/>
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="K22" s="19">
+        <f t="shared" si="4"/>
+        <v>1.6559999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <v>59</v>
+      </c>
+      <c r="D23" s="4">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="4">
+        <v>59</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" si="3"/>
+        <v>26.431999999999999</v>
+      </c>
+      <c r="K23" s="19">
+        <f t="shared" si="4"/>
+        <v>32.567999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="4">
+        <v>51</v>
+      </c>
+      <c r="J24" s="19">
+        <f t="shared" si="3"/>
+        <v>22.847999999999999</v>
+      </c>
+      <c r="K24" s="19">
+        <f t="shared" si="4"/>
+        <v>28.152000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="4">
+        <v>30</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" si="3"/>
+        <v>13.44</v>
+      </c>
+      <c r="K25" s="19">
+        <f t="shared" si="4"/>
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4">
+        <v>14</v>
+      </c>
+      <c r="J26" s="19">
+        <f t="shared" si="3"/>
+        <v>6.2720000000000002</v>
+      </c>
+      <c r="K26" s="19">
+        <f t="shared" si="4"/>
+        <v>7.7279999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>37</v>
+      </c>
+      <c r="D27" s="4">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="4">
+        <v>37</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" si="3"/>
+        <v>16.576000000000001</v>
+      </c>
+      <c r="K27" s="19">
+        <f t="shared" si="4"/>
+        <v>20.423999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
+        <v>38</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="4">
+        <v>38</v>
+      </c>
+      <c r="J28" s="19">
+        <f>$D$29*C28/$C$12</f>
+        <v>17.024000000000001</v>
+      </c>
+      <c r="K28" s="19">
+        <f t="shared" si="4"/>
+        <v>20.975999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C15:C28)</f>
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D15:D28)</f>
+        <v>224</v>
+      </c>
+      <c r="E29">
+        <f>SUM(E15:E28)</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="4">
+        <v>231</v>
+      </c>
+      <c r="D33" s="4">
+        <v>108</v>
+      </c>
+      <c r="E33" s="4">
+        <v>123</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="4">
+        <v>231</v>
+      </c>
+      <c r="J33" s="16">
+        <f>$D$29*C33/$C$12</f>
+        <v>103.488</v>
+      </c>
+      <c r="K33" s="16">
+        <f>$E$29*C33/$C$12</f>
+        <v>127.512</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4">
+        <v>269</v>
+      </c>
+      <c r="D34" s="4">
+        <v>116</v>
+      </c>
+      <c r="E34" s="4">
+        <v>153</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="4">
+        <v>269</v>
+      </c>
+      <c r="J34" s="16">
+        <f>$D$29*C34/$C$12</f>
+        <v>120.512</v>
+      </c>
+      <c r="K34" s="16">
+        <f>$E$29*C34/$C$12</f>
+        <v>148.488</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C33:C34)</f>
+        <v>500</v>
+      </c>
+      <c r="D35">
+        <f>SUM(D33:D34)</f>
+        <v>224</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E33:E34)</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="4">
+        <v>459</v>
+      </c>
+      <c r="D38" s="4">
+        <v>213</v>
+      </c>
+      <c r="E38" s="4">
+        <v>246</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="4">
+        <v>459</v>
+      </c>
+      <c r="J38" s="16">
+        <f>$D$29*C38/$C$12</f>
+        <v>205.63200000000001</v>
+      </c>
+      <c r="K38" s="16">
+        <f>$E$29*C38/$C$12</f>
+        <v>253.36799999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" ref="J39:J40" si="5">$D$29*C39/$C$12</f>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" ref="K39:K40" si="6">$E$29*C39/$C$12</f>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4">
+        <v>29</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="4">
+        <v>40</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="5"/>
+        <v>17.920000000000002</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="6"/>
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f>SUM(C38:C40)</f>
+        <v>500</v>
+      </c>
+      <c r="D41">
+        <f>SUM(D38:D40)</f>
+        <v>224</v>
+      </c>
+      <c r="E41">
+        <f>SUM(E38:E40)</f>
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E869E46-6AB4-45DF-8F45-60D590E88082}">
+  <dimension ref="A1:Q43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E2" s="28"/>
+      <c r="F2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E3" s="30"/>
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="44">
+        <v>192</v>
+      </c>
+      <c r="G4" s="45">
+        <v>193</v>
+      </c>
+      <c r="H4" s="31">
+        <v>172.48</v>
+      </c>
+      <c r="I4" s="31">
+        <v>212.52</v>
+      </c>
+      <c r="N4" s="58">
+        <f>(F4-H4)*(F4-H4)/H4</f>
+        <v>2.2091280148423027</v>
+      </c>
+      <c r="O4" s="58">
+        <f>(G4-I4)*(G4-I4)/I4</f>
+        <v>1.7929154903067963</v>
+      </c>
+    </row>
+    <row r="5" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="43"/>
+      <c r="F5" s="44">
+        <v>31</v>
+      </c>
+      <c r="G5" s="45">
+        <v>83</v>
+      </c>
+      <c r="H5" s="31">
+        <v>51.072000000000003</v>
+      </c>
+      <c r="I5" s="31">
+        <v>62.927999999999997</v>
+      </c>
+      <c r="N5" s="58">
+        <f t="shared" ref="N5:N28" si="0">(F5-H5)*(F5-H5)/H5</f>
+        <v>7.8885726817042618</v>
+      </c>
+      <c r="O5" s="58">
+        <f t="shared" ref="O5:O28" si="1">(G5-I5)*(G5-I5)/I5</f>
+        <v>6.402319857615054</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(N4:O6)</f>
+        <v>19.525078901611273</v>
+      </c>
+    </row>
+    <row r="6" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="46"/>
+      <c r="F6" s="47">
+        <v>1</v>
+      </c>
+      <c r="G6" s="48">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="N6" s="58">
+        <f t="shared" si="0"/>
+        <v>0.68014285714285716</v>
+      </c>
+      <c r="O6" s="58">
+        <f t="shared" si="1"/>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="39">
+        <v>192</v>
+      </c>
+      <c r="G7" s="39">
+        <v>193</v>
+      </c>
+      <c r="H7" s="31">
+        <v>172.48</v>
+      </c>
+      <c r="I7" s="31">
+        <v>212.52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="59">
+        <f t="shared" si="0"/>
+        <v>2.2091280148423027</v>
+      </c>
+      <c r="O7" s="59">
+        <f t="shared" si="1"/>
+        <v>1.7929154903067963</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="40"/>
+      <c r="F8" s="41">
+        <v>31</v>
+      </c>
+      <c r="G8" s="41">
+        <v>83</v>
+      </c>
+      <c r="H8" s="31">
+        <v>51.072000000000003</v>
+      </c>
+      <c r="I8" s="31">
+        <v>62.927999999999997</v>
+      </c>
+      <c r="N8" s="59">
+        <f t="shared" si="0"/>
+        <v>7.8885726817042618</v>
+      </c>
+      <c r="O8" s="59">
+        <f t="shared" si="1"/>
+        <v>6.402319857615054</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(N7:O9)</f>
+        <v>19.525078901611273</v>
+      </c>
+    </row>
+    <row r="9" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="42"/>
+      <c r="F9" s="41">
+        <v>1</v>
+      </c>
+      <c r="G9" s="41">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="I9" s="31">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="N9" s="59">
+        <f t="shared" si="0"/>
+        <v>0.68014285714285716</v>
+      </c>
+      <c r="O9" s="59">
+        <f t="shared" si="1"/>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="34">
+        <v>46</v>
+      </c>
+      <c r="G10" s="34">
+        <v>59</v>
+      </c>
+      <c r="H10" s="32">
+        <v>47.04</v>
+      </c>
+      <c r="I10" s="32">
+        <v>57.96</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="60">
+        <f t="shared" si="0"/>
+        <v>2.2993197278911526E-2</v>
+      </c>
+      <c r="O10" s="60">
+        <f t="shared" si="1"/>
+        <v>1.8661145617667324E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="35"/>
+      <c r="F11" s="36">
+        <v>5</v>
+      </c>
+      <c r="G11" s="36">
+        <v>14</v>
+      </c>
+      <c r="H11" s="31">
+        <v>8.5120000000000005</v>
+      </c>
+      <c r="I11" s="31">
+        <v>10.488</v>
+      </c>
+      <c r="N11" s="60">
+        <f t="shared" si="0"/>
+        <v>1.4490300751879703</v>
+      </c>
+      <c r="O11" s="60">
+        <f t="shared" si="1"/>
+        <v>1.1760244088482079</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="35"/>
+      <c r="F12" s="36">
+        <v>18</v>
+      </c>
+      <c r="G12" s="36">
+        <v>8</v>
+      </c>
+      <c r="H12" s="31">
+        <v>11.648</v>
+      </c>
+      <c r="I12" s="31">
+        <v>14.352</v>
+      </c>
+      <c r="N12" s="60">
+        <f t="shared" si="0"/>
+        <v>3.4639340659340667</v>
+      </c>
+      <c r="O12" s="60">
+        <f t="shared" si="1"/>
+        <v>2.8113088071348944</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="35"/>
+      <c r="F13" s="36">
+        <v>8</v>
+      </c>
+      <c r="G13" s="36">
+        <v>35</v>
+      </c>
+      <c r="H13" s="31">
+        <v>19.263999999999999</v>
+      </c>
+      <c r="I13" s="31">
+        <v>23.736000000000001</v>
+      </c>
+      <c r="N13" s="60">
+        <f t="shared" si="0"/>
+        <v>6.5862591362126244</v>
+      </c>
+      <c r="O13" s="60">
+        <f t="shared" si="1"/>
+        <v>5.3453697337377815</v>
+      </c>
+    </row>
+    <row r="14" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="35"/>
+      <c r="F14" s="36">
+        <v>3</v>
+      </c>
+      <c r="G14" s="36">
+        <v>7</v>
+      </c>
+      <c r="H14" s="31">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="I14" s="31">
+        <v>5.52</v>
+      </c>
+      <c r="N14" s="60">
+        <f t="shared" si="0"/>
+        <v>0.48892857142857166</v>
+      </c>
+      <c r="O14" s="60">
+        <f t="shared" si="1"/>
+        <v>0.3968115942028988</v>
+      </c>
+    </row>
+    <row r="15" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="35"/>
+      <c r="F15" s="36">
+        <v>11</v>
+      </c>
+      <c r="G15" s="36">
+        <v>25</v>
+      </c>
+      <c r="H15" s="31">
+        <v>16.128</v>
+      </c>
+      <c r="I15" s="31">
+        <v>19.872</v>
+      </c>
+      <c r="N15" s="60">
+        <f t="shared" si="0"/>
+        <v>1.6304801587301587</v>
+      </c>
+      <c r="O15" s="60">
+        <f t="shared" si="1"/>
+        <v>1.3232882447665055</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="35"/>
+      <c r="F16" s="36">
+        <v>11</v>
+      </c>
+      <c r="G16" s="36">
+        <v>18</v>
+      </c>
+      <c r="H16" s="31">
+        <v>12.992000000000001</v>
+      </c>
+      <c r="I16" s="31">
+        <v>16.007999999999999</v>
+      </c>
+      <c r="N16" s="60">
+        <f t="shared" si="0"/>
+        <v>0.30542364532019728</v>
+      </c>
+      <c r="O16" s="60">
+        <f t="shared" si="1"/>
+        <v>0.24788005997001522</v>
+      </c>
+      <c r="Q16">
+        <f>SUM(N10:O23)</f>
+        <v>84.312729211631023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="35"/>
+      <c r="F17" s="36">
+        <v>2</v>
+      </c>
+      <c r="G17" s="36">
+        <v>1</v>
+      </c>
+      <c r="H17" s="31">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="N17" s="60">
+        <f t="shared" si="0"/>
+        <v>0.32019047619047608</v>
+      </c>
+      <c r="O17" s="60">
+        <f t="shared" si="1"/>
+        <v>0.25986473429951684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="35"/>
+      <c r="F18" s="36">
+        <v>41</v>
+      </c>
+      <c r="G18" s="36">
+        <v>18</v>
+      </c>
+      <c r="H18" s="31">
+        <v>26.431999999999999</v>
+      </c>
+      <c r="I18" s="31">
+        <v>32.567999999999998</v>
+      </c>
+      <c r="N18" s="60">
+        <f t="shared" si="0"/>
+        <v>8.0291549636803889</v>
+      </c>
+      <c r="O18" s="60">
+        <f t="shared" si="1"/>
+        <v>6.5164156226971244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="35"/>
+      <c r="F19" s="36">
+        <v>28</v>
+      </c>
+      <c r="G19" s="36">
+        <v>23</v>
+      </c>
+      <c r="H19" s="31">
+        <v>22.847999999999999</v>
+      </c>
+      <c r="I19" s="31">
+        <v>28.152000000000001</v>
+      </c>
+      <c r="N19" s="60">
+        <f t="shared" si="0"/>
+        <v>1.161725490196079</v>
+      </c>
+      <c r="O19" s="60">
+        <f t="shared" si="1"/>
+        <v>0.9428496732026147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="35"/>
+      <c r="F20" s="36">
+        <v>25</v>
+      </c>
+      <c r="G20" s="36">
+        <v>5</v>
+      </c>
+      <c r="H20" s="31">
+        <v>13.44</v>
+      </c>
+      <c r="I20" s="31">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="N20" s="60">
+        <f t="shared" si="0"/>
+        <v>9.9429761904761911</v>
+      </c>
+      <c r="O20" s="60">
+        <f t="shared" si="1"/>
+        <v>8.069661835748791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="35"/>
+      <c r="F21" s="36">
+        <v>9</v>
+      </c>
+      <c r="G21" s="36">
+        <v>5</v>
+      </c>
+      <c r="H21" s="31">
+        <v>6.2720000000000002</v>
+      </c>
+      <c r="I21" s="31">
+        <v>7.7279999999999998</v>
+      </c>
+      <c r="N21" s="60">
+        <f t="shared" si="0"/>
+        <v>1.1865408163265303</v>
+      </c>
+      <c r="O21" s="60">
+        <f t="shared" si="1"/>
+        <v>0.96298964803312614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="35"/>
+      <c r="F22" s="36">
+        <v>14</v>
+      </c>
+      <c r="G22" s="36">
+        <v>23</v>
+      </c>
+      <c r="H22" s="31">
+        <v>16.576000000000001</v>
+      </c>
+      <c r="I22" s="31">
+        <v>20.423999999999999</v>
+      </c>
+      <c r="N22" s="60">
+        <f t="shared" si="0"/>
+        <v>0.40032432432432447</v>
+      </c>
+      <c r="O22" s="60">
+        <f t="shared" si="1"/>
+        <v>0.32490090090090101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="37"/>
+      <c r="F23" s="36">
+        <v>3</v>
+      </c>
+      <c r="G23" s="36">
+        <v>35</v>
+      </c>
+      <c r="H23" s="31">
+        <v>17.024000000000001</v>
+      </c>
+      <c r="I23" s="31">
+        <v>20.975999999999999</v>
+      </c>
+      <c r="N23" s="60">
+        <f t="shared" si="0"/>
+        <v>11.552665413533836</v>
+      </c>
+      <c r="O23" s="60">
+        <f t="shared" si="1"/>
+        <v>9.3760762776506503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="51">
+        <v>108</v>
+      </c>
+      <c r="G24" s="51">
+        <v>123</v>
+      </c>
+      <c r="H24" s="31">
+        <v>103.488</v>
+      </c>
+      <c r="I24" s="31">
+        <v>127.512</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="58">
+        <f t="shared" si="0"/>
+        <v>0.19671985157699445</v>
+      </c>
+      <c r="O24" s="58">
+        <f t="shared" si="1"/>
+        <v>0.15965669113495204</v>
+      </c>
+      <c r="Q24">
+        <f>SUM(N24:O25)</f>
+        <v>0.66240993069135046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="52"/>
+      <c r="F25" s="49">
+        <v>116</v>
+      </c>
+      <c r="G25" s="49">
+        <v>153</v>
+      </c>
+      <c r="H25" s="31">
+        <v>120.512</v>
+      </c>
+      <c r="I25" s="31">
+        <v>148.488</v>
+      </c>
+      <c r="N25" s="58">
+        <f t="shared" si="0"/>
+        <v>0.16893043016463094</v>
+      </c>
+      <c r="O25" s="58">
+        <f>(G25-I25)*(G25-I25)/I25</f>
+        <v>0.13710295781477294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="54">
+        <v>213</v>
+      </c>
+      <c r="G26" s="54">
+        <v>246</v>
+      </c>
+      <c r="H26" s="31">
+        <v>205.63200000000001</v>
+      </c>
+      <c r="I26" s="31">
+        <v>253.36799999999999</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="61">
+        <f t="shared" si="0"/>
+        <v>0.26400280112044783</v>
+      </c>
+      <c r="O26" s="61">
+        <f t="shared" si="1"/>
+        <v>0.21426314293833446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="55"/>
+      <c r="F27" s="56">
+        <v>0</v>
+      </c>
+      <c r="G27" s="56">
+        <v>1</v>
+      </c>
+      <c r="H27" s="31">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="I27" s="31">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="N27" s="61">
+        <f t="shared" si="0"/>
+        <v>0.44800000000000006</v>
+      </c>
+      <c r="O27" s="61">
+        <f t="shared" si="1"/>
+        <v>0.36359420289855066</v>
+      </c>
+      <c r="Q27">
+        <f>SUM(N26:O28)</f>
+        <v>6.1308604057565077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="57"/>
+      <c r="F28" s="56">
+        <v>11</v>
+      </c>
+      <c r="G28" s="56">
+        <v>29</v>
+      </c>
+      <c r="H28" s="31">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="I28" s="31">
+        <v>22.08</v>
+      </c>
+      <c r="N28" s="61">
+        <f t="shared" si="0"/>
+        <v>2.6722321428571441</v>
+      </c>
+      <c r="O28" s="61">
+        <f t="shared" si="1"/>
+        <v>2.1687681159420302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="74"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="64"/>
+      <c r="C32" s="22">
+        <f>Q5+Q8</f>
+        <v>39.050157803222547</v>
+      </c>
+      <c r="D32" s="22">
+        <f>$Q$5+Q16</f>
+        <v>103.83780811324229</v>
+      </c>
+      <c r="E32" s="22">
+        <f>$Q$5+Q24</f>
+        <v>20.187488832302623</v>
+      </c>
+      <c r="F32" s="22">
+        <f>$Q$5+Q27</f>
+        <v>25.655939307367781</v>
+      </c>
+      <c r="H32" s="64"/>
+      <c r="I32" s="22">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J32" s="22">
+        <v>5.81</v>
+      </c>
+      <c r="K32" s="22">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="L32" s="22">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="22">
+        <f>Q5+Q8</f>
+        <v>39.050157803222547</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="22">
+        <f>$Q$8+Q16</f>
+        <v>103.83780811324229</v>
+      </c>
+      <c r="E33" s="22">
+        <f>$Q$5+Q24</f>
+        <v>20.187488832302623</v>
+      </c>
+      <c r="F33" s="22">
+        <f>$Q$5+Q27</f>
+        <v>25.655939307367781</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I33" s="64"/>
+      <c r="J33" s="22">
+        <v>5.81</v>
+      </c>
+      <c r="K33" s="22">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="L33" s="22">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="22">
+        <f>$Q$5+Q16</f>
+        <v>103.83780811324229</v>
+      </c>
+      <c r="C34" s="22">
+        <f>$Q$8+Q16</f>
+        <v>103.83780811324229</v>
+      </c>
+      <c r="D34" s="64"/>
+      <c r="E34" s="22">
+        <f>$Q$16+Q24</f>
+        <v>84.975139142322377</v>
+      </c>
+      <c r="F34" s="22">
+        <f>$Q$16+Q27</f>
+        <v>90.443589617387531</v>
+      </c>
+      <c r="H34" s="22">
+        <v>5.81</v>
+      </c>
+      <c r="I34" s="22">
+        <v>5.81</v>
+      </c>
+      <c r="J34" s="64"/>
+      <c r="K34" s="22">
+        <v>5.23</v>
+      </c>
+      <c r="L34" s="22">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="22">
+        <f>$Q$5+Q24</f>
+        <v>20.187488832302623</v>
+      </c>
+      <c r="C35" s="22">
+        <f>$Q$8+Q24</f>
+        <v>20.187488832302623</v>
+      </c>
+      <c r="D35" s="22">
+        <f>$Q$16+Q24</f>
+        <v>84.975139142322377</v>
+      </c>
+      <c r="E35" s="64"/>
+      <c r="F35" s="22">
+        <f>Q24+Q27</f>
+        <v>6.7932703364478577</v>
+      </c>
+      <c r="H35" s="22">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="I35" s="22">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="J35" s="22">
+        <v>5.23</v>
+      </c>
+      <c r="K35" s="64"/>
+      <c r="L35" s="22">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="22">
+        <f>$Q$5+Q27</f>
+        <v>25.655939307367781</v>
+      </c>
+      <c r="C36" s="22">
+        <f>$Q$8+Q27</f>
+        <v>25.655939307367781</v>
+      </c>
+      <c r="D36" s="22">
+        <f>$Q$16+Q27</f>
+        <v>90.443589617387531</v>
+      </c>
+      <c r="E36" s="22">
+        <f>Q24+Q27</f>
+        <v>6.7932703364478577</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="H36" s="22">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I36" s="22">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J36" s="22">
+        <v>5.81</v>
+      </c>
+      <c r="K36" s="22">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="L36" s="64"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="65"/>
+      <c r="B38" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70">
+        <f>IF(C32&gt;I32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="70">
+        <f t="shared" ref="D39:F39" si="2">IF(D32&gt;J32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="70">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="70">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="70">
+        <f>IF(B33&gt;H33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="71"/>
+      <c r="D40" s="70">
+        <f t="shared" ref="D40" si="3">IF(D33&gt;J33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="70">
+        <f t="shared" ref="E40:F40" si="4">IF(E33&gt;K33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="70">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="70">
+        <f t="shared" ref="B41:E43" si="5">IF(B34&gt;H34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70">
+        <f t="shared" ref="E41" si="6">IF(E34&gt;K34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="70">
+        <f t="shared" ref="F41:F42" si="7">IF(F34&gt;L34,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C42" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="69"/>
+      <c r="F42" s="70">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C43" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E23"/>
+    <mergeCell ref="E24:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD7D50B-4FE9-4128-850C-FCA00D91FE31}">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="76"/>
+      <c r="F5" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1лаба/таблички.xlsx
+++ b/1лаба/таблички.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00642A5F-2912-47BE-BC7F-EC7C21846E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7CD6C4-B359-44DF-913A-25A75A842C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="82">
   <si>
     <t>Столбец А4</t>
   </si>
@@ -219,34 +219,70 @@
     <t>A15</t>
   </si>
   <si>
-    <t>0.9966485527801637</t>
-  </si>
-  <si>
-    <t>0.9995918959901602</t>
-  </si>
-  <si>
-    <t>0.9963151857668209</t>
-  </si>
-  <si>
-    <t>0.9991768872110932</t>
-  </si>
-  <si>
-    <t>0.9996730038959366</t>
-  </si>
-  <si>
-    <t>0.9978668143652917</t>
-  </si>
-  <si>
-    <t>0.9993949269549018</t>
-  </si>
-  <si>
-    <t>0.9996621388358949</t>
-  </si>
-  <si>
-    <t>0.9998506517235198</t>
-  </si>
-  <si>
-    <t>0.9993673386500109</t>
+    <t>0.31347251813739085</t>
+  </si>
+  <si>
+    <t>0.4676645036558632</t>
+  </si>
+  <si>
+    <t>0.30679243546680357</t>
+  </si>
+  <si>
+    <t>0.4057255353940894</t>
+  </si>
+  <si>
+    <t>0.488098630668316</t>
+  </si>
+  <si>
+    <t>0.34680389453165544</t>
+  </si>
+  <si>
+    <t>0.4323228032877961</t>
+  </si>
+  <si>
+    <t>0.4850623429663959</t>
+  </si>
+  <si>
+    <t>0.5349167467924574</t>
+  </si>
+  <si>
+    <t>0.4284106020628657</t>
+  </si>
+  <si>
+    <t>Коэффициент Крамера</t>
+  </si>
+  <si>
+    <t>Коэффийинт пирсона</t>
+  </si>
+  <si>
+    <t>0.3301110135213661</t>
+  </si>
+  <si>
+    <t>0.5290884722675822</t>
+  </si>
+  <si>
+    <t>0.32233665482107593</t>
+  </si>
+  <si>
+    <t>0.4439034703865374</t>
+  </si>
+  <si>
+    <t>0.5592404610745639</t>
+  </si>
+  <si>
+    <t>0.3697515393581051</t>
+  </si>
+  <si>
+    <t>0.47944298184211476</t>
+  </si>
+  <si>
+    <t>0.5546868766214221</t>
+  </si>
+  <si>
+    <t>0.6331089188093931</t>
+  </si>
+  <si>
+    <t>0.4741236237847638</t>
   </si>
 </sst>
 </file>
@@ -257,7 +293,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,11 +354,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="11">
@@ -387,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -696,11 +745,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -726,24 +784,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -765,18 +805,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -784,48 +815,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -835,29 +842,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -889,6 +881,33 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -898,8 +917,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1226,7 +1293,7 @@
       <c r="D9" s="4">
         <v>193</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="50">
         <v>1.23214286</v>
       </c>
       <c r="F9" s="6">
@@ -1247,7 +1314,7 @@
       <c r="D10" s="4">
         <v>83</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="6">
         <f t="shared" ref="F10:F11" si="0">(C10+1)/(C10+1+$E$9*(D10+1))</f>
         <v>0.2361623612053213</v>
@@ -1266,14 +1333,14 @@
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>0.61878452983974852</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B12">
@@ -1322,7 +1389,7 @@
       <c r="D14" s="4">
         <v>193</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="53" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="6">
@@ -1343,7 +1410,7 @@
       <c r="D15" s="4">
         <v>83</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="6">
         <f t="shared" ref="F15:F16" si="1">(C15+1)/(C15+1+$E$9*(D15+1))</f>
         <v>0.2361623612053213</v>
@@ -1362,7 +1429,7 @@
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>0.61878452983974852</v>
@@ -1402,7 +1469,7 @@
       <c r="D19" s="4">
         <v>59</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="53" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="4">
@@ -1423,9 +1490,9 @@
       <c r="D20" s="4">
         <v>14</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="4">
-        <f t="shared" ref="F20:F32" si="2">(C20+1)/(C20+1+$E$9*(D20+1))</f>
+        <f t="shared" ref="F20:F31" si="2">(C20+1)/(C20+1+$E$9*(D20+1))</f>
         <v>0.24507658600424231</v>
       </c>
     </row>
@@ -1442,7 +1509,7 @@
       <c r="D21" s="4">
         <v>8</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
         <v>0.6314540053950779</v>
@@ -1461,7 +1528,7 @@
       <c r="D22" s="4">
         <v>35</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
         <v>0.1686746984700247</v>
@@ -1480,7 +1547,7 @@
       <c r="D23" s="4">
         <v>7</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
         <v>0.28865979333829311</v>
@@ -1499,7 +1566,7 @@
       <c r="D24" s="4">
         <v>25</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
         <v>0.27250608226535877</v>
@@ -1518,7 +1585,7 @@
       <c r="D25" s="4">
         <v>18</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
         <v>0.33888048359546313</v>
@@ -1537,7 +1604,7 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
         <v>0.54901960726899912</v>
@@ -1556,7 +1623,7 @@
       <c r="D27" s="4">
         <v>18</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
         <v>0.64209664156375279</v>
@@ -1575,7 +1642,7 @@
       <c r="D28" s="4">
         <v>23</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
         <v>0.4951219506398572</v>
@@ -1594,7 +1661,7 @@
       <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
         <v>0.77860962526873523</v>
@@ -1613,7 +1680,7 @@
       <c r="D30" s="4">
         <v>5</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
         <v>0.57494866473105677</v>
@@ -1632,7 +1699,7 @@
       <c r="D31" s="4">
         <v>23</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
         <v>0.33653846102071006</v>
@@ -1651,7 +1718,7 @@
       <c r="D32" s="4">
         <v>35</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="4">
         <f>(C32+1)/(C32+1+$E$9*(D32+1))</f>
         <v>8.2717872793037314E-2</v>
@@ -1691,7 +1758,7 @@
       <c r="D35" s="4">
         <v>123</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="53" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="4">
@@ -1712,7 +1779,7 @@
       <c r="D36" s="4">
         <v>153</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="4">
         <f>(C36+1)/(C36+1+$E$9*(D36+1))</f>
         <v>0.38141809236243207</v>
@@ -1752,7 +1819,7 @@
       <c r="D39" s="4">
         <v>246</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="53" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="4">
@@ -1773,7 +1840,7 @@
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="13"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="4">
         <f t="shared" ref="F40:F41" si="3">(C40+1)/(C40+1+$E$9*(D40+1))</f>
         <v>0.28865979333829311</v>
@@ -1792,7 +1859,7 @@
       <c r="D41" s="4">
         <v>29</v>
       </c>
-      <c r="E41" s="14"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="4">
         <f t="shared" si="3"/>
         <v>0.24507658600424231</v>
@@ -1815,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AE2613-1515-4604-9D53-617254825EF5}">
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1867,11 +1934,11 @@
       <c r="I3" s="4">
         <v>385</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="13">
         <f>D6*C3/C6</f>
         <v>172.48</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="10">
         <f>$E$6*C3/$C$6</f>
         <v>212.52</v>
       </c>
@@ -1895,11 +1962,11 @@
       <c r="I4" s="4">
         <v>114</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="13">
         <f>$D$6*C4/$C$6</f>
         <v>51.072000000000003</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="10">
         <f>$E$6*C4/$C$6</f>
         <v>62.927999999999997</v>
       </c>
@@ -1923,17 +1990,17 @@
       <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="13">
         <f>$D$6*C5/$C$6</f>
         <v>0.44800000000000001</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="10">
         <f>$E$6*C5/$C$6</f>
         <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -1948,10 +2015,10 @@
         <f>SUM(E3:E5)</f>
         <v>276</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J7" s="20"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -1972,7 +2039,7 @@
       <c r="I8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="15">
         <v>1</v>
       </c>
       <c r="K8" s="2">
@@ -1998,11 +2065,11 @@
       <c r="I9" s="4">
         <v>385</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="13">
         <f>$D$12*C9/$C$12</f>
         <v>172.48</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="10">
         <f>$E$12*C9/$C$12</f>
         <v>212.52</v>
       </c>
@@ -2026,11 +2093,11 @@
       <c r="I10" s="4">
         <v>114</v>
       </c>
-      <c r="J10" s="19">
-        <f t="shared" ref="J10:J11" si="0">$D$12*C10/$C$12</f>
+      <c r="J10" s="13">
+        <f t="shared" ref="J10" si="0">$D$12*C10/$C$12</f>
         <v>51.072000000000003</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="10">
         <f t="shared" ref="K10:K11" si="1">$E$12*C10/$C$12</f>
         <v>62.927999999999997</v>
       </c>
@@ -2054,17 +2121,17 @@
       <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="13">
         <f>$D$12*C11/$C$12</f>
         <v>0.44800000000000001</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="10">
         <f t="shared" si="1"/>
         <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C12">
@@ -2132,11 +2199,11 @@
         <f>SUM(J15:K15)</f>
         <v>105</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="13">
         <f>$D$29*C15/$C$12</f>
         <v>47.04</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="13">
         <f>$E$29*C15/$C$12</f>
         <v>57.96</v>
       </c>
@@ -2164,11 +2231,11 @@
       <c r="I16" s="4">
         <v>19</v>
       </c>
-      <c r="J16" s="19">
-        <f t="shared" ref="J16:J28" si="3">$D$29*C16/$C$12</f>
+      <c r="J16" s="13">
+        <f t="shared" ref="J16:J27" si="3">$D$29*C16/$C$12</f>
         <v>8.5120000000000005</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="13">
         <f t="shared" ref="K16:K28" si="4">$E$29*C16/$C$12</f>
         <v>10.488</v>
       </c>
@@ -2196,11 +2263,11 @@
       <c r="I17" s="4">
         <v>26</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="13">
         <f t="shared" si="3"/>
         <v>11.648</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="13">
         <f t="shared" si="4"/>
         <v>14.352</v>
       </c>
@@ -2228,11 +2295,11 @@
       <c r="I18" s="4">
         <v>43</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="13">
         <f t="shared" si="3"/>
         <v>19.263999999999999</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="13">
         <f t="shared" si="4"/>
         <v>23.736000000000001</v>
       </c>
@@ -2260,11 +2327,11 @@
       <c r="I19" s="4">
         <v>10</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="13">
         <f>$D$29*C19/$C$12</f>
         <v>4.4800000000000004</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="13">
         <f t="shared" si="4"/>
         <v>5.52</v>
       </c>
@@ -2292,11 +2359,11 @@
       <c r="I20" s="4">
         <v>36</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="13">
         <f t="shared" si="3"/>
         <v>16.128</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="13">
         <f t="shared" si="4"/>
         <v>19.872</v>
       </c>
@@ -2324,11 +2391,11 @@
       <c r="I21" s="4">
         <v>29</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="13">
         <f t="shared" si="3"/>
         <v>12.992000000000001</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="13">
         <f t="shared" si="4"/>
         <v>16.007999999999999</v>
       </c>
@@ -2356,11 +2423,11 @@
       <c r="I22" s="4">
         <v>3</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="13">
         <f t="shared" si="3"/>
         <v>1.3440000000000001</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="13">
         <f t="shared" si="4"/>
         <v>1.6559999999999999</v>
       </c>
@@ -2388,11 +2455,11 @@
       <c r="I23" s="4">
         <v>59</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="13">
         <f t="shared" si="3"/>
         <v>26.431999999999999</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="13">
         <f t="shared" si="4"/>
         <v>32.567999999999998</v>
       </c>
@@ -2420,11 +2487,11 @@
       <c r="I24" s="4">
         <v>51</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="13">
         <f t="shared" si="3"/>
         <v>22.847999999999999</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="13">
         <f t="shared" si="4"/>
         <v>28.152000000000001</v>
       </c>
@@ -2452,11 +2519,11 @@
       <c r="I25" s="4">
         <v>30</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="13">
         <f t="shared" si="3"/>
         <v>13.44</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="13">
         <f t="shared" si="4"/>
         <v>16.559999999999999</v>
       </c>
@@ -2484,11 +2551,11 @@
       <c r="I26" s="4">
         <v>14</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="13">
         <f t="shared" si="3"/>
         <v>6.2720000000000002</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="13">
         <f t="shared" si="4"/>
         <v>7.7279999999999998</v>
       </c>
@@ -2516,11 +2583,11 @@
       <c r="I27" s="4">
         <v>37</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="13">
         <f t="shared" si="3"/>
         <v>16.576000000000001</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="13">
         <f t="shared" si="4"/>
         <v>20.423999999999999</v>
       </c>
@@ -2548,17 +2615,17 @@
       <c r="I28" s="4">
         <v>38</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="13">
         <f>$D$29*C28/$C$12</f>
         <v>17.024000000000001</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="13">
         <f t="shared" si="4"/>
         <v>20.975999999999999</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C29">
@@ -2620,11 +2687,11 @@
       <c r="I33" s="4">
         <v>231</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="10">
         <f>$D$29*C33/$C$12</f>
         <v>103.488</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="10">
         <f>$E$29*C33/$C$12</f>
         <v>127.512</v>
       </c>
@@ -2648,17 +2715,17 @@
       <c r="I34" s="4">
         <v>269</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="10">
         <f>$D$29*C34/$C$12</f>
         <v>120.512</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="10">
         <f>$E$29*C34/$C$12</f>
         <v>148.488</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C35">
@@ -2720,11 +2787,11 @@
       <c r="I38" s="4">
         <v>459</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="10">
         <f>$D$29*C38/$C$12</f>
         <v>205.63200000000001</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="10">
         <f>$E$29*C38/$C$12</f>
         <v>253.36799999999999</v>
       </c>
@@ -2748,11 +2815,11 @@
       <c r="I39" s="4">
         <v>1</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="10">
         <f t="shared" ref="J39:J40" si="5">$D$29*C39/$C$12</f>
         <v>0.44800000000000001</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="10">
         <f t="shared" ref="K39:K40" si="6">$E$29*C39/$C$12</f>
         <v>0.55200000000000005</v>
       </c>
@@ -2776,17 +2843,17 @@
       <c r="I40" s="4">
         <v>40</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="10">
         <f t="shared" si="5"/>
         <v>17.920000000000002</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="10">
         <f t="shared" si="6"/>
         <v>22.08</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C41">
@@ -2819,15 +2886,15 @@
   <sheetData>
     <row r="1" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E2" s="28"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="63"/>
+      <c r="H2" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="63"/>
       <c r="L2" t="s">
         <v>42</v>
       </c>
@@ -2839,17 +2906,17 @@
       </c>
     </row>
     <row r="3" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E3" s="30"/>
-      <c r="F3" s="26">
-        <v>1</v>
-      </c>
-      <c r="G3" s="27">
+      <c r="E3" s="21"/>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19">
         <v>0</v>
       </c>
-      <c r="H3" s="23">
-        <v>1</v>
-      </c>
-      <c r="I3" s="27">
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="19">
         <v>0</v>
       </c>
       <c r="L3" t="s">
@@ -2857,49 +2924,49 @@
       </c>
     </row>
     <row r="4" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="28">
         <v>192</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="29">
         <v>193</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="22">
         <v>172.48</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="22">
         <v>212.52</v>
       </c>
-      <c r="N4" s="58">
+      <c r="N4" s="36">
         <f>(F4-H4)*(F4-H4)/H4</f>
         <v>2.2091280148423027</v>
       </c>
-      <c r="O4" s="58">
+      <c r="O4" s="36">
         <f>(G4-I4)*(G4-I4)/I4</f>
         <v>1.7929154903067963</v>
       </c>
     </row>
     <row r="5" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="43"/>
-      <c r="F5" s="44">
+      <c r="E5" s="65"/>
+      <c r="F5" s="28">
         <v>31</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="29">
         <v>83</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="22">
         <v>51.072000000000003</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="22">
         <v>62.927999999999997</v>
       </c>
-      <c r="N5" s="58">
+      <c r="N5" s="36">
         <f t="shared" ref="N5:N28" si="0">(F5-H5)*(F5-H5)/H5</f>
         <v>7.8885726817042618</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="36">
         <f t="shared" ref="O5:O28" si="1">(G5-I5)*(G5-I5)/I5</f>
         <v>6.402319857615054</v>
       </c>
@@ -2909,75 +2976,75 @@
       </c>
     </row>
     <row r="6" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="46"/>
-      <c r="F6" s="47">
-        <v>1</v>
-      </c>
-      <c r="G6" s="48">
+      <c r="E6" s="66"/>
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
         <v>0</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="22">
         <v>0.44800000000000001</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="22">
         <v>0.55200000000000005</v>
       </c>
-      <c r="N6" s="58">
+      <c r="N6" s="36">
         <f t="shared" si="0"/>
         <v>0.68014285714285716</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="36">
         <f t="shared" si="1"/>
         <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="7" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="26">
         <v>192</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="26">
         <v>193</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="22">
         <v>172.48</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="22">
         <v>212.52</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N7" s="37">
         <f t="shared" si="0"/>
         <v>2.2091280148423027</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="37">
         <f t="shared" si="1"/>
         <v>1.7929154903067963</v>
       </c>
     </row>
     <row r="8" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="40"/>
-      <c r="F8" s="41">
+      <c r="E8" s="68"/>
+      <c r="F8" s="27">
         <v>31</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="27">
         <v>83</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="22">
         <v>51.072000000000003</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="22">
         <v>62.927999999999997</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="37">
         <f t="shared" si="0"/>
         <v>7.8885726817042618</v>
       </c>
-      <c r="O8" s="59">
+      <c r="O8" s="37">
         <f t="shared" si="1"/>
         <v>6.402319857615054</v>
       </c>
@@ -2987,190 +3054,190 @@
       </c>
     </row>
     <row r="9" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="42"/>
-      <c r="F9" s="41">
-        <v>1</v>
-      </c>
-      <c r="G9" s="41">
+      <c r="E9" s="69"/>
+      <c r="F9" s="27">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27">
         <v>0</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="22">
         <v>0.44800000000000001</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="22">
         <v>0.55200000000000005</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="37">
         <f t="shared" si="0"/>
         <v>0.68014285714285716</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="37">
         <f t="shared" si="1"/>
         <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="10" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="24">
         <v>46</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="24">
         <v>59</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="23">
         <v>47.04</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="23">
         <v>57.96</v>
       </c>
       <c r="L10" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="38">
         <f t="shared" si="0"/>
         <v>2.2993197278911526E-2</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="38">
         <f t="shared" si="1"/>
         <v>1.8661145617667324E-2</v>
       </c>
     </row>
     <row r="11" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="35"/>
-      <c r="F11" s="36">
+      <c r="E11" s="71"/>
+      <c r="F11" s="25">
         <v>5</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="25">
         <v>14</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="22">
         <v>8.5120000000000005</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="22">
         <v>10.488</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="38">
         <f t="shared" si="0"/>
         <v>1.4490300751879703</v>
       </c>
-      <c r="O11" s="60">
+      <c r="O11" s="38">
         <f t="shared" si="1"/>
         <v>1.1760244088482079</v>
       </c>
     </row>
     <row r="12" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="35"/>
-      <c r="F12" s="36">
+      <c r="E12" s="71"/>
+      <c r="F12" s="25">
         <v>18</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="25">
         <v>8</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="22">
         <v>11.648</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="22">
         <v>14.352</v>
       </c>
-      <c r="N12" s="60">
+      <c r="N12" s="38">
         <f t="shared" si="0"/>
         <v>3.4639340659340667</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="38">
         <f t="shared" si="1"/>
         <v>2.8113088071348944</v>
       </c>
     </row>
     <row r="13" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="35"/>
-      <c r="F13" s="36">
+      <c r="E13" s="71"/>
+      <c r="F13" s="25">
         <v>8</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="25">
         <v>35</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="22">
         <v>19.263999999999999</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="22">
         <v>23.736000000000001</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="38">
         <f t="shared" si="0"/>
         <v>6.5862591362126244</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="38">
         <f t="shared" si="1"/>
         <v>5.3453697337377815</v>
       </c>
     </row>
     <row r="14" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="35"/>
-      <c r="F14" s="36">
+      <c r="E14" s="71"/>
+      <c r="F14" s="25">
         <v>3</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="25">
         <v>7</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="22">
         <v>4.4800000000000004</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="22">
         <v>5.52</v>
       </c>
-      <c r="N14" s="60">
+      <c r="N14" s="38">
         <f t="shared" si="0"/>
         <v>0.48892857142857166</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="38">
         <f t="shared" si="1"/>
         <v>0.3968115942028988</v>
       </c>
     </row>
     <row r="15" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="35"/>
-      <c r="F15" s="36">
+      <c r="E15" s="71"/>
+      <c r="F15" s="25">
         <v>11</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="25">
         <v>25</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="22">
         <v>16.128</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="22">
         <v>19.872</v>
       </c>
-      <c r="N15" s="60">
+      <c r="N15" s="38">
         <f t="shared" si="0"/>
         <v>1.6304801587301587</v>
       </c>
-      <c r="O15" s="60">
+      <c r="O15" s="38">
         <f t="shared" si="1"/>
         <v>1.3232882447665055</v>
       </c>
     </row>
     <row r="16" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="35"/>
-      <c r="F16" s="36">
+      <c r="E16" s="71"/>
+      <c r="F16" s="25">
         <v>11</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="25">
         <v>18</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="22">
         <v>12.992000000000001</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="22">
         <v>16.007999999999999</v>
       </c>
-      <c r="N16" s="60">
+      <c r="N16" s="38">
         <f t="shared" si="0"/>
         <v>0.30542364532019728</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="38">
         <f t="shared" si="1"/>
         <v>0.24788005997001522</v>
       </c>
@@ -3180,190 +3247,190 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="35"/>
-      <c r="F17" s="36">
+      <c r="E17" s="71"/>
+      <c r="F17" s="25">
         <v>2</v>
       </c>
-      <c r="G17" s="36">
-        <v>1</v>
-      </c>
-      <c r="H17" s="31">
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22">
         <v>1.3440000000000001</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="22">
         <v>1.6559999999999999</v>
       </c>
-      <c r="N17" s="60">
+      <c r="N17" s="38">
         <f t="shared" si="0"/>
         <v>0.32019047619047608</v>
       </c>
-      <c r="O17" s="60">
+      <c r="O17" s="38">
         <f t="shared" si="1"/>
         <v>0.25986473429951684</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="35"/>
-      <c r="F18" s="36">
+      <c r="E18" s="71"/>
+      <c r="F18" s="25">
         <v>41</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="25">
         <v>18</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="22">
         <v>26.431999999999999</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="22">
         <v>32.567999999999998</v>
       </c>
-      <c r="N18" s="60">
+      <c r="N18" s="38">
         <f t="shared" si="0"/>
         <v>8.0291549636803889</v>
       </c>
-      <c r="O18" s="60">
+      <c r="O18" s="38">
         <f t="shared" si="1"/>
         <v>6.5164156226971244</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="35"/>
-      <c r="F19" s="36">
+      <c r="E19" s="71"/>
+      <c r="F19" s="25">
         <v>28</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="25">
         <v>23</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="22">
         <v>22.847999999999999</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="22">
         <v>28.152000000000001</v>
       </c>
-      <c r="N19" s="60">
+      <c r="N19" s="38">
         <f t="shared" si="0"/>
         <v>1.161725490196079</v>
       </c>
-      <c r="O19" s="60">
+      <c r="O19" s="38">
         <f t="shared" si="1"/>
         <v>0.9428496732026147</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E20" s="35"/>
-      <c r="F20" s="36">
+      <c r="E20" s="71"/>
+      <c r="F20" s="25">
         <v>25</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="25">
         <v>5</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="22">
         <v>13.44</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="22">
         <v>16.559999999999999</v>
       </c>
-      <c r="N20" s="60">
+      <c r="N20" s="38">
         <f t="shared" si="0"/>
         <v>9.9429761904761911</v>
       </c>
-      <c r="O20" s="60">
+      <c r="O20" s="38">
         <f t="shared" si="1"/>
         <v>8.069661835748791</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E21" s="35"/>
-      <c r="F21" s="36">
+      <c r="E21" s="71"/>
+      <c r="F21" s="25">
         <v>9</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="25">
         <v>5</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="22">
         <v>6.2720000000000002</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="22">
         <v>7.7279999999999998</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21" s="38">
         <f t="shared" si="0"/>
         <v>1.1865408163265303</v>
       </c>
-      <c r="O21" s="60">
+      <c r="O21" s="38">
         <f t="shared" si="1"/>
         <v>0.96298964803312614</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="35"/>
-      <c r="F22" s="36">
+      <c r="E22" s="71"/>
+      <c r="F22" s="25">
         <v>14</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="25">
         <v>23</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="22">
         <v>16.576000000000001</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="22">
         <v>20.423999999999999</v>
       </c>
-      <c r="N22" s="60">
+      <c r="N22" s="38">
         <f t="shared" si="0"/>
         <v>0.40032432432432447</v>
       </c>
-      <c r="O22" s="60">
+      <c r="O22" s="38">
         <f t="shared" si="1"/>
         <v>0.32490090090090101</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="37"/>
-      <c r="F23" s="36">
+      <c r="E23" s="72"/>
+      <c r="F23" s="25">
         <v>3</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="25">
         <v>35</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="22">
         <v>17.024000000000001</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="22">
         <v>20.975999999999999</v>
       </c>
-      <c r="N23" s="60">
+      <c r="N23" s="38">
         <f t="shared" si="0"/>
         <v>11.552665413533836</v>
       </c>
-      <c r="O23" s="60">
+      <c r="O23" s="38">
         <f t="shared" si="1"/>
         <v>9.3760762776506503</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="33">
         <v>108</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="33">
         <v>123</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="22">
         <v>103.488</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="22">
         <v>127.512</v>
       </c>
       <c r="L24" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="58">
+      <c r="N24" s="36">
         <f t="shared" si="0"/>
         <v>0.19671985157699445</v>
       </c>
-      <c r="O24" s="58">
+      <c r="O24" s="36">
         <f t="shared" si="1"/>
         <v>0.15965669113495204</v>
       </c>
@@ -3373,75 +3440,75 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="52"/>
-      <c r="F25" s="49">
+      <c r="E25" s="74"/>
+      <c r="F25" s="32">
         <v>116</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="32">
         <v>153</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="22">
         <v>120.512</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="22">
         <v>148.488</v>
       </c>
-      <c r="N25" s="58">
+      <c r="N25" s="36">
         <f t="shared" si="0"/>
         <v>0.16893043016463094</v>
       </c>
-      <c r="O25" s="58">
+      <c r="O25" s="36">
         <f>(G25-I25)*(G25-I25)/I25</f>
         <v>0.13710295781477294</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="34">
         <v>213</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="34">
         <v>246</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="22">
         <v>205.63200000000001</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="22">
         <v>253.36799999999999</v>
       </c>
       <c r="L26" t="s">
         <v>44</v>
       </c>
-      <c r="N26" s="61">
+      <c r="N26" s="39">
         <f t="shared" si="0"/>
         <v>0.26400280112044783</v>
       </c>
-      <c r="O26" s="61">
+      <c r="O26" s="39">
         <f t="shared" si="1"/>
         <v>0.21426314293833446</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E27" s="55"/>
-      <c r="F27" s="56">
+      <c r="E27" s="57"/>
+      <c r="F27" s="35">
         <v>0</v>
       </c>
-      <c r="G27" s="56">
-        <v>1</v>
-      </c>
-      <c r="H27" s="31">
+      <c r="G27" s="35">
+        <v>1</v>
+      </c>
+      <c r="H27" s="22">
         <v>0.44800000000000001</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="22">
         <v>0.55200000000000005</v>
       </c>
-      <c r="N27" s="61">
+      <c r="N27" s="39">
         <f t="shared" si="0"/>
         <v>0.44800000000000006</v>
       </c>
-      <c r="O27" s="61">
+      <c r="O27" s="39">
         <f t="shared" si="1"/>
         <v>0.36359420289855066</v>
       </c>
@@ -3451,360 +3518,360 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="57"/>
-      <c r="F28" s="56">
+      <c r="E28" s="58"/>
+      <c r="F28" s="35">
         <v>11</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="35">
         <v>29</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="22">
         <v>17.920000000000002</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="22">
         <v>22.08</v>
       </c>
-      <c r="N28" s="61">
+      <c r="N28" s="39">
         <f t="shared" si="0"/>
         <v>2.6722321428571441</v>
       </c>
-      <c r="O28" s="61">
+      <c r="O28" s="39">
         <f t="shared" si="1"/>
         <v>2.1687681159420302</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="63" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="F31" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="22">
+      <c r="B32" s="42"/>
+      <c r="C32" s="16">
         <f>Q5+Q8</f>
         <v>39.050157803222547</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="16">
         <f>$Q$5+Q16</f>
         <v>103.83780811324229</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="16">
         <f>$Q$5+Q24</f>
         <v>20.187488832302623</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="16">
         <f>$Q$5+Q27</f>
         <v>25.655939307367781</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="22">
+      <c r="H32" s="42"/>
+      <c r="I32" s="16">
         <v>0.55400000000000005</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="16">
         <v>5.81</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="16">
         <v>0.29699999999999999</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="16">
         <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="16">
         <f>Q5+Q8</f>
         <v>39.050157803222547</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="22">
+      <c r="C33" s="42"/>
+      <c r="D33" s="16">
         <f>$Q$8+Q16</f>
         <v>103.83780811324229</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="16">
         <f>$Q$5+Q24</f>
         <v>20.187488832302623</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="16">
         <f>$Q$5+Q27</f>
         <v>25.655939307367781</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="16">
         <v>0.55400000000000005</v>
       </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="22">
+      <c r="I33" s="42"/>
+      <c r="J33" s="16">
         <v>5.81</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="16">
         <v>0.29699999999999999</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="16">
         <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="16">
         <f>$Q$5+Q16</f>
         <v>103.83780811324229</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="16">
         <f>$Q$8+Q16</f>
         <v>103.83780811324229</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="22">
+      <c r="D34" s="42"/>
+      <c r="E34" s="16">
         <f>$Q$16+Q24</f>
         <v>84.975139142322377</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="16">
         <f>$Q$16+Q27</f>
         <v>90.443589617387531</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="16">
         <v>5.81</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="16">
         <v>5.81</v>
       </c>
-      <c r="J34" s="64"/>
-      <c r="K34" s="22">
+      <c r="J34" s="42"/>
+      <c r="K34" s="16">
         <v>5.23</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="16">
         <v>5.81</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="16">
         <f>$Q$5+Q24</f>
         <v>20.187488832302623</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="16">
         <f>$Q$8+Q24</f>
         <v>20.187488832302623</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="16">
         <f>$Q$16+Q24</f>
         <v>84.975139142322377</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="22">
+      <c r="E35" s="42"/>
+      <c r="F35" s="16">
         <f>Q24+Q27</f>
         <v>6.7932703364478577</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="16">
         <v>0.29699999999999999</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="16">
         <v>0.29699999999999999</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="16">
         <v>5.23</v>
       </c>
-      <c r="K35" s="64"/>
-      <c r="L35" s="22">
+      <c r="K35" s="42"/>
+      <c r="L35" s="16">
         <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="16">
         <f>$Q$5+Q27</f>
         <v>25.655939307367781</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="16">
         <f>$Q$8+Q27</f>
         <v>25.655939307367781</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="16">
         <f>$Q$16+Q27</f>
         <v>90.443589617387531</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="16">
         <f>Q24+Q27</f>
         <v>6.7932703364478577</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="H36" s="22">
+      <c r="F36" s="42"/>
+      <c r="H36" s="16">
         <v>0.55400000000000005</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="16">
         <v>0.55400000000000005</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="16">
         <v>5.81</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="16">
         <v>0.29699999999999999</v>
       </c>
-      <c r="L36" s="64"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66" t="s">
+      <c r="A38" s="43"/>
+      <c r="B38" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="70">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48">
         <f>IF(C32&gt;I32,1,0)</f>
         <v>1</v>
       </c>
-      <c r="D39" s="70">
+      <c r="D39" s="48">
         <f t="shared" ref="D39:F39" si="2">IF(D32&gt;J32,1,0)</f>
         <v>1</v>
       </c>
-      <c r="E39" s="70">
+      <c r="E39" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F39" s="70">
+      <c r="F39" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="70">
+      <c r="B40" s="48">
         <f>IF(B33&gt;H33,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="70">
+      <c r="C40" s="49"/>
+      <c r="D40" s="48">
         <f t="shared" ref="D40" si="3">IF(D33&gt;J33,1,0)</f>
         <v>1</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="48">
         <f t="shared" ref="E40:F40" si="4">IF(E33&gt;K33,1,0)</f>
         <v>1</v>
       </c>
-      <c r="F40" s="70">
+      <c r="F40" s="48">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="70">
+      <c r="B41" s="48">
         <f t="shared" ref="B41:E43" si="5">IF(B34&gt;H34,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C41" s="70">
+      <c r="C41" s="48">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70">
+      <c r="D41" s="47"/>
+      <c r="E41" s="48">
         <f t="shared" ref="E41" si="6">IF(E34&gt;K34,1,0)</f>
         <v>1</v>
       </c>
-      <c r="F41" s="70">
+      <c r="F41" s="48">
         <f t="shared" ref="F41:F42" si="7">IF(F34&gt;L34,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="70">
+      <c r="B42" s="48">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="48">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="48">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E42" s="69"/>
-      <c r="F42" s="70">
+      <c r="E42" s="47"/>
+      <c r="F42" s="48">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="70">
+      <c r="B43" s="48">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C43" s="70">
+      <c r="C43" s="48">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="48">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="48">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F43" s="69"/>
+      <c r="F43" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3824,21 +3891,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD7D50B-4FE9-4128-850C-FCA00D91FE31}">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
     <col min="6" max="6" width="19.6328125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+    </row>
+    <row r="2" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="75"/>
       <c r="C2" s="75" t="s">
         <v>55</v>
@@ -3856,7 +3934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="75" t="s">
         <v>55</v>
       </c>
@@ -3874,7 +3952,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="75" t="s">
         <v>56</v>
       </c>
@@ -3892,7 +3970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="75" t="s">
         <v>57</v>
       </c>
@@ -3910,7 +3988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="75" t="s">
         <v>58</v>
       </c>
@@ -3928,7 +4006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="75" t="s">
         <v>59</v>
       </c>
@@ -3946,7 +4024,130 @@
       </c>
       <c r="G7" s="76"/>
     </row>
+    <row r="11" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="80"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1лаба/таблички.xlsx
+++ b/1лаба/таблички.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7CD6C4-B359-44DF-913A-25A75A842C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA810DA-60FE-4E9E-8A85-66211B49D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="88">
   <si>
     <t>Столбец А4</t>
   </si>
@@ -283,6 +283,24 @@
   </si>
   <si>
     <t>0.4741236237847638</t>
+  </si>
+  <si>
+    <t>0.18181818181818182</t>
+  </si>
+  <si>
+    <t>Перестановочный критерий, массив количественных данных</t>
+  </si>
+  <si>
+    <t>0.2222222222222222</t>
+  </si>
+  <si>
+    <t>0.4444444444444444</t>
+  </si>
+  <si>
+    <t>0.8888888888888888</t>
+  </si>
+  <si>
+    <t>0.2857142857142857</t>
   </si>
 </sst>
 </file>
@@ -758,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -881,92 +899,93 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1293,7 +1312,7 @@
       <c r="D9" s="4">
         <v>193</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="55">
         <v>1.23214286</v>
       </c>
       <c r="F9" s="6">
@@ -1314,7 +1333,7 @@
       <c r="D10" s="4">
         <v>83</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="6">
         <f t="shared" ref="F10:F11" si="0">(C10+1)/(C10+1+$E$9*(D10+1))</f>
         <v>0.2361623612053213</v>
@@ -1333,7 +1352,7 @@
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>0.61878452983974852</v>
@@ -1389,7 +1408,7 @@
       <c r="D14" s="4">
         <v>193</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="58" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="6">
@@ -1410,7 +1429,7 @@
       <c r="D15" s="4">
         <v>83</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="6">
         <f t="shared" ref="F15:F16" si="1">(C15+1)/(C15+1+$E$9*(D15+1))</f>
         <v>0.2361623612053213</v>
@@ -1429,7 +1448,7 @@
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="55"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>0.61878452983974852</v>
@@ -1469,7 +1488,7 @@
       <c r="D19" s="4">
         <v>59</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="58" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="4">
@@ -1490,7 +1509,7 @@
       <c r="D20" s="4">
         <v>14</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="4">
         <f t="shared" ref="F20:F31" si="2">(C20+1)/(C20+1+$E$9*(D20+1))</f>
         <v>0.24507658600424231</v>
@@ -1509,7 +1528,7 @@
       <c r="D21" s="4">
         <v>8</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
         <v>0.6314540053950779</v>
@@ -1528,7 +1547,7 @@
       <c r="D22" s="4">
         <v>35</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
         <v>0.1686746984700247</v>
@@ -1547,7 +1566,7 @@
       <c r="D23" s="4">
         <v>7</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
         <v>0.28865979333829311</v>
@@ -1566,7 +1585,7 @@
       <c r="D24" s="4">
         <v>25</v>
       </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
         <v>0.27250608226535877</v>
@@ -1585,7 +1604,7 @@
       <c r="D25" s="4">
         <v>18</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
         <v>0.33888048359546313</v>
@@ -1604,7 +1623,7 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="54"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
         <v>0.54901960726899912</v>
@@ -1623,7 +1642,7 @@
       <c r="D27" s="4">
         <v>18</v>
       </c>
-      <c r="E27" s="54"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
         <v>0.64209664156375279</v>
@@ -1642,7 +1661,7 @@
       <c r="D28" s="4">
         <v>23</v>
       </c>
-      <c r="E28" s="54"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
         <v>0.4951219506398572</v>
@@ -1661,7 +1680,7 @@
       <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="54"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
         <v>0.77860962526873523</v>
@@ -1680,7 +1699,7 @@
       <c r="D30" s="4">
         <v>5</v>
       </c>
-      <c r="E30" s="54"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
         <v>0.57494866473105677</v>
@@ -1699,7 +1718,7 @@
       <c r="D31" s="4">
         <v>23</v>
       </c>
-      <c r="E31" s="54"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
         <v>0.33653846102071006</v>
@@ -1718,7 +1737,7 @@
       <c r="D32" s="4">
         <v>35</v>
       </c>
-      <c r="E32" s="55"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="4">
         <f>(C32+1)/(C32+1+$E$9*(D32+1))</f>
         <v>8.2717872793037314E-2</v>
@@ -1758,7 +1777,7 @@
       <c r="D35" s="4">
         <v>123</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="58" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="4">
@@ -1779,7 +1798,7 @@
       <c r="D36" s="4">
         <v>153</v>
       </c>
-      <c r="E36" s="55"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="4">
         <f>(C36+1)/(C36+1+$E$9*(D36+1))</f>
         <v>0.38141809236243207</v>
@@ -1819,7 +1838,7 @@
       <c r="D39" s="4">
         <v>246</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="58" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="4">
@@ -1840,7 +1859,7 @@
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="54"/>
+      <c r="E40" s="59"/>
       <c r="F40" s="4">
         <f t="shared" ref="F40:F41" si="3">(C40+1)/(C40+1+$E$9*(D40+1))</f>
         <v>0.28865979333829311</v>
@@ -1859,7 +1878,7 @@
       <c r="D41" s="4">
         <v>29</v>
       </c>
-      <c r="E41" s="55"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="4">
         <f t="shared" si="3"/>
         <v>0.24507658600424231</v>
@@ -2878,7 +2897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E869E46-6AB4-45DF-8F45-60D590E88082}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2887,14 +2906,14 @@
     <row r="1" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E2" s="20"/>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64" t="s">
+      <c r="G2" s="68"/>
+      <c r="H2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="63"/>
+      <c r="I2" s="68"/>
       <c r="L2" t="s">
         <v>42</v>
       </c>
@@ -2924,7 +2943,7 @@
       </c>
     </row>
     <row r="4" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="70" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="28">
@@ -2949,7 +2968,7 @@
       </c>
     </row>
     <row r="5" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="65"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="28">
         <v>31</v>
       </c>
@@ -2976,7 +2995,7 @@
       </c>
     </row>
     <row r="6" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="66"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="30">
         <v>1</v>
       </c>
@@ -2999,7 +3018,7 @@
       </c>
     </row>
     <row r="7" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="72" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="26">
@@ -3027,7 +3046,7 @@
       </c>
     </row>
     <row r="8" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="68"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="27">
         <v>31</v>
       </c>
@@ -3054,7 +3073,7 @@
       </c>
     </row>
     <row r="9" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="69"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="27">
         <v>1</v>
       </c>
@@ -3077,7 +3096,7 @@
       </c>
     </row>
     <row r="10" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="75" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="24">
@@ -3105,7 +3124,7 @@
       </c>
     </row>
     <row r="11" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="71"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="25">
         <v>5</v>
       </c>
@@ -3128,7 +3147,7 @@
       </c>
     </row>
     <row r="12" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="71"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="25">
         <v>18</v>
       </c>
@@ -3151,7 +3170,7 @@
       </c>
     </row>
     <row r="13" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="71"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="25">
         <v>8</v>
       </c>
@@ -3174,7 +3193,7 @@
       </c>
     </row>
     <row r="14" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="71"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="25">
         <v>3</v>
       </c>
@@ -3197,7 +3216,7 @@
       </c>
     </row>
     <row r="15" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="71"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="25">
         <v>11</v>
       </c>
@@ -3220,7 +3239,7 @@
       </c>
     </row>
     <row r="16" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="71"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="25">
         <v>11</v>
       </c>
@@ -3247,7 +3266,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="71"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="25">
         <v>2</v>
       </c>
@@ -3270,7 +3289,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="71"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="25">
         <v>41</v>
       </c>
@@ -3293,7 +3312,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="71"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="25">
         <v>28</v>
       </c>
@@ -3316,7 +3335,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E20" s="71"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="25">
         <v>25</v>
       </c>
@@ -3339,7 +3358,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E21" s="71"/>
+      <c r="E21" s="76"/>
       <c r="F21" s="25">
         <v>9</v>
       </c>
@@ -3362,7 +3381,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="71"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="25">
         <v>14</v>
       </c>
@@ -3385,7 +3404,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="72"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="25">
         <v>3</v>
       </c>
@@ -3408,7 +3427,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="78" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="33">
@@ -3440,7 +3459,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="74"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="32">
         <v>116</v>
       </c>
@@ -3463,7 +3482,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="61" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="34">
@@ -3491,7 +3510,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E27" s="57"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="35">
         <v>0</v>
       </c>
@@ -3518,7 +3537,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="58"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="35">
         <v>11</v>
       </c>
@@ -3561,13 +3580,13 @@
       <c r="F31" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="61"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="41" t="s">
@@ -3891,261 +3910,380 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD7D50B-4FE9-4128-850C-FCA00D91FE31}">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
     <col min="5" max="5" width="19.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
     <col min="7" max="7" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="75" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="50" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="75" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="75" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="50" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="76"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="11" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
     </row>
     <row r="12" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="79" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="52" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="79" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="52" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="79" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="79" t="s">
+      <c r="F16" s="53"/>
+      <c r="G16" s="52" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="E17" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="80"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/1лаба/таблички.xlsx
+++ b/1лаба/таблички.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA810DA-60FE-4E9E-8A85-66211B49D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E42071-D146-4449-B34D-287FF241C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Значения для1 зад" sheetId="1" r:id="rId1"/>
     <sheet name="Ожид част" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Знач хикв тут" sheetId="3" r:id="rId3"/>
     <sheet name="Коэф Пирсона" sheetId="4" r:id="rId4"/>
+    <sheet name="Перест крит" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
   <si>
     <t>Столбец А4</t>
   </si>
@@ -201,9 +202,6 @@
     <t>хи для каждого столбца суммма</t>
   </si>
   <si>
-    <t>Альфа=0.01</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -219,99 +217,82 @@
     <t>A15</t>
   </si>
   <si>
-    <t>0.31347251813739085</t>
-  </si>
-  <si>
-    <t>0.4676645036558632</t>
-  </si>
-  <si>
-    <t>0.30679243546680357</t>
-  </si>
-  <si>
-    <t>0.4057255353940894</t>
-  </si>
-  <si>
-    <t>0.488098630668316</t>
-  </si>
-  <si>
-    <t>0.34680389453165544</t>
-  </si>
-  <si>
-    <t>0.4323228032877961</t>
-  </si>
-  <si>
-    <t>0.4850623429663959</t>
-  </si>
-  <si>
-    <t>0.5349167467924574</t>
-  </si>
-  <si>
-    <t>0.4284106020628657</t>
-  </si>
-  <si>
     <t>Коэффициент Крамера</t>
   </si>
   <si>
     <t>Коэффийинт пирсона</t>
   </si>
   <si>
-    <t>0.3301110135213661</t>
-  </si>
-  <si>
-    <t>0.5290884722675822</t>
-  </si>
-  <si>
-    <t>0.32233665482107593</t>
-  </si>
-  <si>
-    <t>0.4439034703865374</t>
-  </si>
-  <si>
-    <t>0.5592404610745639</t>
-  </si>
-  <si>
-    <t>0.3697515393581051</t>
-  </si>
-  <si>
-    <t>0.47944298184211476</t>
-  </si>
-  <si>
-    <t>0.5546868766214221</t>
-  </si>
-  <si>
-    <t>0.6331089188093931</t>
-  </si>
-  <si>
-    <t>0.4741236237847638</t>
-  </si>
-  <si>
-    <t>0.18181818181818182</t>
-  </si>
-  <si>
-    <t>Перестановочный критерий, массив количественных данных</t>
-  </si>
-  <si>
-    <t>0.2222222222222222</t>
-  </si>
-  <si>
-    <t>0.4444444444444444</t>
-  </si>
-  <si>
-    <t>0.8888888888888888</t>
-  </si>
-  <si>
-    <t>0.2857142857142857</t>
+    <t>Степени свободы</t>
+  </si>
+  <si>
+    <t>Перестановочный критерий для количественных данных</t>
+  </si>
+  <si>
+    <t>0.001998001998001998</t>
+  </si>
+  <si>
+    <t>0.011976047904191617</t>
+  </si>
+  <si>
+    <t>0.003992015968063872</t>
+  </si>
+  <si>
+    <t>0.46706586826347307</t>
+  </si>
+  <si>
+    <t>0.21157684630738524</t>
+  </si>
+  <si>
+    <t>0.05189620758483034</t>
+  </si>
+  <si>
+    <t>0.4431137724550898</t>
+  </si>
+  <si>
+    <t>Перестановочный критерий для качественных данных</t>
+  </si>
+  <si>
+    <t>0.15568862275449102</t>
+  </si>
+  <si>
+    <t>0.9860279441117764</t>
+  </si>
+  <si>
+    <t>0.0998003992015968</t>
+  </si>
+  <si>
+    <t>0.11177644710578842</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.14770459081836326</t>
+  </si>
+  <si>
+    <t>0.03992015968063872</t>
+  </si>
+  <si>
+    <t>0.10778443113772455</t>
+  </si>
+  <si>
+    <t>0.40718562874251496</t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,15 +311,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -392,7 +364,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,8 +425,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -554,19 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -755,17 +720,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -776,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -822,15 +776,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,6 +799,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -852,9 +809,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,34 +830,37 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -922,70 +879,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1268,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,7 +1271,7 @@
       <c r="D9" s="4">
         <v>193</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="58">
         <v>1.23214286</v>
       </c>
       <c r="F9" s="6">
@@ -1333,7 +1292,7 @@
       <c r="D10" s="4">
         <v>83</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="6">
         <f t="shared" ref="F10:F11" si="0">(C10+1)/(C10+1+$E$9*(D10+1))</f>
         <v>0.2361623612053213</v>
@@ -1352,7 +1311,7 @@
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="57"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>0.61878452983974852</v>
@@ -1408,7 +1367,7 @@
       <c r="D14" s="4">
         <v>193</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="61" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="6">
@@ -1429,7 +1388,7 @@
       <c r="D15" s="4">
         <v>83</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="6">
         <f t="shared" ref="F15:F16" si="1">(C15+1)/(C15+1+$E$9*(D15+1))</f>
         <v>0.2361623612053213</v>
@@ -1448,7 +1407,7 @@
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="60"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>0.61878452983974852</v>
@@ -1488,7 +1447,7 @@
       <c r="D19" s="4">
         <v>59</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="61" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="4">
@@ -1509,7 +1468,7 @@
       <c r="D20" s="4">
         <v>14</v>
       </c>
-      <c r="E20" s="59"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="4">
         <f t="shared" ref="F20:F31" si="2">(C20+1)/(C20+1+$E$9*(D20+1))</f>
         <v>0.24507658600424231</v>
@@ -1528,7 +1487,7 @@
       <c r="D21" s="4">
         <v>8</v>
       </c>
-      <c r="E21" s="59"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
         <v>0.6314540053950779</v>
@@ -1547,7 +1506,7 @@
       <c r="D22" s="4">
         <v>35</v>
       </c>
-      <c r="E22" s="59"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
         <v>0.1686746984700247</v>
@@ -1566,7 +1525,7 @@
       <c r="D23" s="4">
         <v>7</v>
       </c>
-      <c r="E23" s="59"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
         <v>0.28865979333829311</v>
@@ -1585,7 +1544,7 @@
       <c r="D24" s="4">
         <v>25</v>
       </c>
-      <c r="E24" s="59"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
         <v>0.27250608226535877</v>
@@ -1604,7 +1563,7 @@
       <c r="D25" s="4">
         <v>18</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
         <v>0.33888048359546313</v>
@@ -1623,7 +1582,7 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
         <v>0.54901960726899912</v>
@@ -1642,7 +1601,7 @@
       <c r="D27" s="4">
         <v>18</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
         <v>0.64209664156375279</v>
@@ -1661,7 +1620,7 @@
       <c r="D28" s="4">
         <v>23</v>
       </c>
-      <c r="E28" s="59"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
         <v>0.4951219506398572</v>
@@ -1680,7 +1639,7 @@
       <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="59"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
         <v>0.77860962526873523</v>
@@ -1699,7 +1658,7 @@
       <c r="D30" s="4">
         <v>5</v>
       </c>
-      <c r="E30" s="59"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
         <v>0.57494866473105677</v>
@@ -1718,7 +1677,7 @@
       <c r="D31" s="4">
         <v>23</v>
       </c>
-      <c r="E31" s="59"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
         <v>0.33653846102071006</v>
@@ -1737,7 +1696,7 @@
       <c r="D32" s="4">
         <v>35</v>
       </c>
-      <c r="E32" s="60"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="4">
         <f>(C32+1)/(C32+1+$E$9*(D32+1))</f>
         <v>8.2717872793037314E-2</v>
@@ -1777,7 +1736,7 @@
       <c r="D35" s="4">
         <v>123</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="61" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="4">
@@ -1798,7 +1757,7 @@
       <c r="D36" s="4">
         <v>153</v>
       </c>
-      <c r="E36" s="60"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="4">
         <f>(C36+1)/(C36+1+$E$9*(D36+1))</f>
         <v>0.38141809236243207</v>
@@ -1838,7 +1797,7 @@
       <c r="D39" s="4">
         <v>246</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="61" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="4">
@@ -1859,7 +1818,7 @@
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="59"/>
+      <c r="E40" s="62"/>
       <c r="F40" s="4">
         <f t="shared" ref="F40:F41" si="3">(C40+1)/(C40+1+$E$9*(D40+1))</f>
         <v>0.28865979333829311</v>
@@ -1878,7 +1837,7 @@
       <c r="D41" s="4">
         <v>29</v>
       </c>
-      <c r="E41" s="60"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="4">
         <f t="shared" si="3"/>
         <v>0.24507658600424231</v>
@@ -1902,7 +1861,7 @@
   <dimension ref="B1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2895,25 +2854,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E869E46-6AB4-45DF-8F45-60D590E88082}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E2" s="20"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="68"/>
+      <c r="I2" s="69"/>
       <c r="L2" t="s">
         <v>42</v>
       </c>
@@ -2943,7 +2908,7 @@
       </c>
     </row>
     <row r="4" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="71" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="28">
@@ -2968,7 +2933,7 @@
       </c>
     </row>
     <row r="5" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="28">
         <v>31</v>
       </c>
@@ -2995,7 +2960,7 @@
       </c>
     </row>
     <row r="6" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="71"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="30">
         <v>1</v>
       </c>
@@ -3018,7 +2983,7 @@
       </c>
     </row>
     <row r="7" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="73" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="26">
@@ -3046,7 +3011,7 @@
       </c>
     </row>
     <row r="8" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="73"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="27">
         <v>31</v>
       </c>
@@ -3073,7 +3038,7 @@
       </c>
     </row>
     <row r="9" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="74"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="27">
         <v>1</v>
       </c>
@@ -3096,7 +3061,7 @@
       </c>
     </row>
     <row r="10" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="76" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="24">
@@ -3124,7 +3089,7 @@
       </c>
     </row>
     <row r="11" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="76"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="25">
         <v>5</v>
       </c>
@@ -3147,7 +3112,7 @@
       </c>
     </row>
     <row r="12" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="25">
         <v>18</v>
       </c>
@@ -3170,7 +3135,7 @@
       </c>
     </row>
     <row r="13" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="76"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="25">
         <v>8</v>
       </c>
@@ -3193,7 +3158,7 @@
       </c>
     </row>
     <row r="14" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="76"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="25">
         <v>3</v>
       </c>
@@ -3216,7 +3181,7 @@
       </c>
     </row>
     <row r="15" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="76"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="25">
         <v>11</v>
       </c>
@@ -3239,7 +3204,7 @@
       </c>
     </row>
     <row r="16" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="76"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="25">
         <v>11</v>
       </c>
@@ -3266,7 +3231,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="76"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="25">
         <v>2</v>
       </c>
@@ -3289,7 +3254,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="76"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="25">
         <v>41</v>
       </c>
@@ -3312,7 +3277,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="76"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="25">
         <v>28</v>
       </c>
@@ -3335,7 +3300,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E20" s="76"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="25">
         <v>25</v>
       </c>
@@ -3358,7 +3323,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E21" s="76"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="25">
         <v>9</v>
       </c>
@@ -3381,7 +3346,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="76"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="25">
         <v>14</v>
       </c>
@@ -3404,7 +3369,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="77"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="25">
         <v>3</v>
       </c>
@@ -3427,7 +3392,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="79" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="33">
@@ -3459,7 +3424,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="79"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="32">
         <v>116</v>
       </c>
@@ -3482,7 +3447,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="65" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="34">
@@ -3510,7 +3475,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E27" s="62"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="35">
         <v>0</v>
       </c>
@@ -3537,7 +3502,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="63"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="35">
         <v>11</v>
       </c>
@@ -3563,337 +3528,434 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
     </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+    </row>
     <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="16"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="41" t="s">
+      <c r="H31" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="56"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="16">
-        <f>Q5+Q8</f>
-        <v>39.050157803222547</v>
-      </c>
-      <c r="D32" s="16">
-        <f>$Q$5+Q16</f>
-        <v>103.83780811324229</v>
-      </c>
-      <c r="E32" s="16">
-        <f>$Q$5+Q24</f>
-        <v>20.187488832302623</v>
-      </c>
-      <c r="F32" s="16">
-        <f>$Q$5+Q27</f>
-        <v>25.655939307367781</v>
-      </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="16">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="J32" s="16">
-        <v>5.81</v>
-      </c>
-      <c r="K32" s="16">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="L32" s="16">
-        <v>0.55400000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="41" t="s">
+      <c r="B32" s="52"/>
+      <c r="C32" s="51">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="51">
+        <v>41.1226729508641</v>
+      </c>
+      <c r="E32" s="51">
+        <v>1.4631258840971999</v>
+      </c>
+      <c r="F32" s="51">
+        <v>12.3947277830146</v>
+      </c>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87">
+        <v>3.5694127797773601E-215</v>
+      </c>
+      <c r="J32" s="87">
+        <v>3.0163393228088701E-2</v>
+      </c>
+      <c r="K32" s="87">
+        <v>0.48115638256017301</v>
+      </c>
+      <c r="L32" s="87">
+        <v>1.4645106030140201E-2</v>
+      </c>
+      <c r="M32" s="56"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="16">
-        <f>Q5+Q8</f>
-        <v>39.050157803222547</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="16">
-        <f>$Q$8+Q16</f>
-        <v>103.83780811324229</v>
-      </c>
-      <c r="E33" s="16">
-        <f>$Q$5+Q24</f>
-        <v>20.187488832302623</v>
-      </c>
-      <c r="F33" s="16">
-        <f>$Q$5+Q27</f>
-        <v>25.655939307367781</v>
-      </c>
-      <c r="H33" s="16">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="16">
-        <v>5.81</v>
-      </c>
-      <c r="K33" s="16">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="L33" s="16">
-        <v>0.55400000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="41" t="s">
+      <c r="B33" s="54">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="51">
+        <v>41.1226729508641</v>
+      </c>
+      <c r="E33" s="51">
+        <v>1.4631258840971999</v>
+      </c>
+      <c r="F33" s="51">
+        <v>12.3947277830146</v>
+      </c>
+      <c r="H33" s="87">
+        <v>3.5694127797773601E-215</v>
+      </c>
+      <c r="I33" s="86"/>
+      <c r="J33" s="87">
+        <v>3.0163393228088701E-2</v>
+      </c>
+      <c r="K33" s="87">
+        <v>0.48115638256017301</v>
+      </c>
+      <c r="L33" s="87">
+        <v>1.4645106030140201E-2</v>
+      </c>
+      <c r="M33" s="56"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="16">
-        <f>$Q$5+Q16</f>
-        <v>103.83780811324229</v>
-      </c>
-      <c r="C34" s="16">
-        <f>$Q$8+Q16</f>
-        <v>103.83780811324229</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="16">
-        <f>$Q$16+Q24</f>
-        <v>84.975139142322377</v>
-      </c>
-      <c r="F34" s="16">
-        <f>$Q$16+Q27</f>
-        <v>90.443589617387531</v>
-      </c>
-      <c r="H34" s="16">
-        <v>5.81</v>
-      </c>
-      <c r="I34" s="16">
-        <v>5.81</v>
-      </c>
-      <c r="J34" s="42"/>
-      <c r="K34" s="16">
-        <v>5.23</v>
-      </c>
-      <c r="L34" s="16">
-        <v>5.81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="41" t="s">
+      <c r="B34" s="51">
+        <v>41.1226729508641</v>
+      </c>
+      <c r="C34" s="51">
+        <v>41.1226729508641</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="51">
+        <v>25.139147516542</v>
+      </c>
+      <c r="F34" s="51">
+        <v>50.711183676054297</v>
+      </c>
+      <c r="H34" s="87">
+        <v>3.0163393228088701E-2</v>
+      </c>
+      <c r="I34" s="87">
+        <v>3.0163393228088701E-2</v>
+      </c>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87">
+        <v>2.2130701471326598E-2</v>
+      </c>
+      <c r="L34" s="87">
+        <v>2.5832896720448801E-3</v>
+      </c>
+      <c r="M34" s="56"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="16">
-        <f>$Q$5+Q24</f>
-        <v>20.187488832302623</v>
-      </c>
-      <c r="C35" s="16">
-        <f>$Q$8+Q24</f>
-        <v>20.187488832302623</v>
-      </c>
-      <c r="D35" s="16">
-        <f>$Q$16+Q24</f>
-        <v>84.975139142322377</v>
-      </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="16">
-        <f>Q24+Q27</f>
-        <v>6.7932703364478577</v>
-      </c>
-      <c r="H35" s="16">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="I35" s="16">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="J35" s="16">
-        <v>5.23</v>
-      </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="16">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="41" t="s">
+      <c r="B35" s="54">
+        <v>1.4631258840971999</v>
+      </c>
+      <c r="C35" s="51">
+        <v>1.4631258840971999</v>
+      </c>
+      <c r="D35" s="54">
+        <v>25.139147516542</v>
+      </c>
+      <c r="E35" s="52"/>
+      <c r="F35" s="51">
+        <v>1.1009297764892101</v>
+      </c>
+      <c r="H35" s="85">
+        <v>0.48115638256017301</v>
+      </c>
+      <c r="I35" s="87">
+        <v>0.48115638256017301</v>
+      </c>
+      <c r="J35" s="87">
+        <v>2.2130701471326598E-2</v>
+      </c>
+      <c r="K35" s="86"/>
+      <c r="L35" s="87">
+        <v>0.57668165553175799</v>
+      </c>
+      <c r="M35" s="56"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="16">
-        <f>$Q$5+Q27</f>
-        <v>25.655939307367781</v>
-      </c>
-      <c r="C36" s="16">
-        <f>$Q$8+Q27</f>
-        <v>25.655939307367781</v>
-      </c>
-      <c r="D36" s="16">
-        <f>$Q$16+Q27</f>
-        <v>90.443589617387531</v>
-      </c>
-      <c r="E36" s="16">
-        <f>Q24+Q27</f>
-        <v>6.7932703364478577</v>
-      </c>
-      <c r="F36" s="42"/>
-      <c r="H36" s="16">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="I36" s="16">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="J36" s="16">
-        <v>5.81</v>
-      </c>
-      <c r="K36" s="16">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="L36" s="42"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44" t="s">
+      <c r="B36" s="51">
+        <v>12.3947277830146</v>
+      </c>
+      <c r="C36" s="51">
+        <v>12.3947277830146</v>
+      </c>
+      <c r="D36" s="51">
+        <v>50.711183676054297</v>
+      </c>
+      <c r="E36" s="51">
+        <v>1.1009297764892101</v>
+      </c>
+      <c r="F36" s="52"/>
+      <c r="H36" s="85">
+        <v>1.4645106030140201E-2</v>
+      </c>
+      <c r="I36" s="87">
+        <v>1.4645106030140201E-2</v>
+      </c>
+      <c r="J36" s="87">
+        <v>2.5832896720448801E-3</v>
+      </c>
+      <c r="K36" s="87">
+        <v>0.57668165553175799</v>
+      </c>
+      <c r="L36" s="86"/>
+      <c r="M36" s="56"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M37" s="56"/>
+    </row>
+    <row r="38" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="44" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="46" t="s">
+      <c r="H38" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="56"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48">
-        <f>IF(C32&gt;I32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D39" s="48">
-        <f t="shared" ref="D39:F39" si="2">IF(D32&gt;J32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F39" s="48">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="46" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47">
+        <f>IF(I32&lt;0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="47">
+        <f t="shared" ref="D39:F39" si="2">IF(J32&lt;0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="47">
+        <f t="shared" ref="E39" si="3">IF(K32&lt;0.05,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="47">
+        <f t="shared" ref="F39" si="4">IF(L32&lt;0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="16">
+        <v>4</v>
+      </c>
+      <c r="J39" s="16">
+        <v>26</v>
+      </c>
+      <c r="K39" s="16">
+        <v>2</v>
+      </c>
+      <c r="L39" s="16">
+        <v>4</v>
+      </c>
+      <c r="M39" s="56"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="48">
-        <f>IF(B33&gt;H33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="48">
-        <f t="shared" ref="D40" si="3">IF(D33&gt;J33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E40" s="48">
-        <f t="shared" ref="E40:F40" si="4">IF(E33&gt;K33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F40" s="48">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="46" t="s">
+      <c r="B40" s="47">
+        <f>IF(H33&lt;0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="48"/>
+      <c r="D40" s="47">
+        <f t="shared" ref="D40" si="5">IF(J33&lt;0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="47">
+        <f t="shared" ref="E40" si="6">IF(K33&lt;0.05,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="47">
+        <f t="shared" ref="F40" si="7">IF(L33&lt;0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="16">
+        <v>4</v>
+      </c>
+      <c r="I40" s="41"/>
+      <c r="J40" s="16">
+        <v>26</v>
+      </c>
+      <c r="K40" s="16">
+        <v>2</v>
+      </c>
+      <c r="L40" s="16">
+        <v>4</v>
+      </c>
+      <c r="M40" s="56"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="48">
-        <f t="shared" ref="B41:E43" si="5">IF(B34&gt;H34,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C41" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48">
-        <f t="shared" ref="E41" si="6">IF(E34&gt;K34,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F41" s="48">
-        <f t="shared" ref="F41:F42" si="7">IF(F34&gt;L34,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="46" t="s">
+      <c r="B41" s="47">
+        <f t="shared" ref="B41:E43" si="8">IF(H34&lt;0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47">
+        <f t="shared" ref="E41" si="9">IF(K34&lt;0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="47">
+        <f t="shared" ref="F41:F42" si="10">IF(L34&lt;0.05,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="16">
+        <v>26</v>
+      </c>
+      <c r="I41" s="16">
+        <v>26</v>
+      </c>
+      <c r="J41" s="41"/>
+      <c r="K41" s="16">
+        <v>13</v>
+      </c>
+      <c r="L41" s="16">
+        <v>26</v>
+      </c>
+      <c r="M41" s="56"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C42" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="D42" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="46" t="s">
+      <c r="B42" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>2</v>
+      </c>
+      <c r="I42" s="16">
+        <v>2</v>
+      </c>
+      <c r="J42" s="16">
+        <v>13</v>
+      </c>
+      <c r="K42" s="41"/>
+      <c r="L42" s="16">
+        <v>2</v>
+      </c>
+      <c r="M42" s="56"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C43" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="D43" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E43" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F43" s="47"/>
+      <c r="B43" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C43" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="H43" s="16">
+        <v>4</v>
+      </c>
+      <c r="I43" s="16">
+        <v>4</v>
+      </c>
+      <c r="J43" s="16">
+        <v>26</v>
+      </c>
+      <c r="K43" s="16">
+        <v>2</v>
+      </c>
+      <c r="L43" s="41"/>
+      <c r="M43" s="56"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="H38:L38"/>
     <mergeCell ref="E26:E28"/>
     <mergeCell ref="H31:L31"/>
     <mergeCell ref="F2:G2"/>
@@ -3912,380 +3974,534 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD7D50B-4FE9-4128-850C-FCA00D91FE31}">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="49">
+        <v>0.35644258436627702</v>
+      </c>
+      <c r="E3" s="49">
+        <v>0.2074528328345</v>
+      </c>
+      <c r="F3" s="49">
+        <v>0.37463382774968701</v>
+      </c>
+      <c r="G3" s="54">
+        <v>0.143319093720982</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0.35644258436627702</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="49">
+        <v>0.23608375663654399</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0.34463060861198802</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0.15833142781703299</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="49">
+        <v>0.2074528328345</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0.23608375663654399</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="49">
+        <v>0.18506671476692799</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0.37672723661830498</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="49">
+        <v>0.37463382774968701</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0.34463060861198802</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0.18506671476692799</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="49">
+        <v>0.14225925862174901</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="49">
+        <v>0.143319093720982</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0.15833142781703299</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0.37672723661830498</v>
+      </c>
+      <c r="F7" s="49">
+        <v>0.14225925862174901</v>
+      </c>
+      <c r="G7" s="50"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="51">
+        <v>0.190750300527182</v>
+      </c>
+      <c r="E13" s="57">
+        <v>0.149953540927968</v>
+      </c>
+      <c r="F13" s="57">
+        <v>0.20203019720659901</v>
+      </c>
+      <c r="G13" s="57">
+        <v>0.10239901604084201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="53">
+        <v>0.190750300527182</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="57">
+        <v>0.171792534626941</v>
+      </c>
+      <c r="F14" s="57">
+        <v>0.183560519330422</v>
+      </c>
+      <c r="G14" s="57">
+        <v>0.113387493487754</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="51">
+        <v>0.149953540927968</v>
+      </c>
+      <c r="D15" s="53">
+        <v>0.171792534626941</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="51">
+        <v>0.13316217786350401</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0.28757358760006602</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="51">
+        <v>0.20203019720659901</v>
+      </c>
+      <c r="D16" s="51">
+        <v>0.183560519330422</v>
+      </c>
+      <c r="E16" s="51">
+        <v>0.13316217786350401</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="51">
+        <v>0.101626081487698</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="51">
+        <v>0.10239901604084201</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0.113387493487754</v>
+      </c>
+      <c r="E17" s="51">
+        <v>0.28757358760006602</v>
+      </c>
+      <c r="F17" s="51">
+        <v>0.101626081487698</v>
+      </c>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.5" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B21:G21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A3DA8B-E86B-4CD6-81C1-3F56E97E9DAE}">
+  <dimension ref="D2:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+    <row r="2" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D7" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D8" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="13" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D13" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+    </row>
+    <row r="14" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D15" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-    </row>
-    <row r="2" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="50" t="s">
+      <c r="H15" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D16" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="51"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="52"/>
-      <c r="C12" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="52" t="s">
+      <c r="F16" s="52"/>
+      <c r="G16" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D17" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D18" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="F18" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="52"/>
+      <c r="I18" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D19" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="52" t="s">
+      <c r="F19" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="52" t="s">
+      <c r="G19" s="51" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="52" t="s">
+      <c r="H19" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="53"/>
+      <c r="I19" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B20:G20"/>
+  <mergeCells count="2">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1лаба/таблички.xlsx
+++ b/1лаба/таблички.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E42071-D146-4449-B34D-287FF241C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB98801-4D0A-4C66-B208-86DA1377F819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Значения для1 зад" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="80">
   <si>
     <t>Столбец А4</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>l</t>
-  </si>
-  <si>
-    <t>1.23214286</t>
   </si>
   <si>
     <t>Столбец А5</t>
@@ -290,7 +287,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -861,6 +858,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -891,6 +891,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,12 +942,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1227,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1271,12 +1268,13 @@
       <c r="D9" s="4">
         <v>193</v>
       </c>
-      <c r="E9" s="58">
-        <v>1.23214286</v>
+      <c r="E9" s="61">
+        <f>C12/D12</f>
+        <v>0.81159420289855078</v>
       </c>
       <c r="F9" s="6">
         <f>(C9+1)/(C9+1+$E$9*(D9+1))</f>
-        <v>0.4467223272767521</v>
+        <v>0.55072164095777676</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1292,10 +1290,10 @@
       <c r="D10" s="4">
         <v>83</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="6">
         <f t="shared" ref="F10:F11" si="0">(C10+1)/(C10+1+$E$9*(D10+1))</f>
-        <v>0.2361623612053213</v>
+        <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1311,10 +1309,10 @@
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="60"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>0.61878452983974852</v>
+        <v>0.71134020618556704</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1336,7 +1334,7 @@
     </row>
     <row r="13" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -1356,7 +1354,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4">
         <v>385</v>
@@ -1367,17 +1365,18 @@
       <c r="D14" s="4">
         <v>193</v>
       </c>
-      <c r="E14" s="61" t="s">
-        <v>7</v>
+      <c r="E14" s="64">
+        <f>224/276</f>
+        <v>0.81159420289855078</v>
       </c>
       <c r="F14" s="6">
         <f>(C14+1)/(C14+1+$E$9*(D14+1))</f>
-        <v>0.4467223272767521</v>
+        <v>0.55072164095777676</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="4">
         <v>114</v>
@@ -1388,15 +1387,15 @@
       <c r="D15" s="4">
         <v>83</v>
       </c>
-      <c r="E15" s="62"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="6">
         <f t="shared" ref="F15:F16" si="1">(C15+1)/(C15+1+$E$9*(D15+1))</f>
-        <v>0.2361623612053213</v>
+        <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -1407,16 +1406,16 @@
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="63"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
-        <v>0.61878452983974852</v>
+        <v>0.71134020618556704</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -1436,7 +1435,7 @@
     </row>
     <row r="19" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="5">
         <v>105</v>
@@ -1447,17 +1446,18 @@
       <c r="D19" s="4">
         <v>59</v>
       </c>
-      <c r="E19" s="61" t="s">
-        <v>7</v>
+      <c r="E19" s="64">
+        <f>224/276</f>
+        <v>0.81159420289855078</v>
       </c>
       <c r="F19" s="4">
         <f>(C19+1)/(C19+1+$E$9*(D19+1))</f>
-        <v>0.38865918432794916</v>
+        <v>0.49114039073148569</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4">
         <v>19</v>
@@ -1468,15 +1468,15 @@
       <c r="D20" s="4">
         <v>14</v>
       </c>
-      <c r="E20" s="62"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="4">
         <f t="shared" ref="F20:F31" si="2">(C20+1)/(C20+1+$E$9*(D20+1))</f>
-        <v>0.24507658600424231</v>
+        <v>0.33014354066985646</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4">
         <v>26</v>
@@ -1487,15 +1487,15 @@
       <c r="D21" s="4">
         <v>8</v>
       </c>
-      <c r="E21" s="62"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
-        <v>0.6314540053950779</v>
+        <v>0.72231404958677681</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="4">
         <v>43</v>
@@ -1506,15 +1506,15 @@
       <c r="D22" s="4">
         <v>35</v>
       </c>
-      <c r="E22" s="62"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
-        <v>0.1686746984700247</v>
+        <v>0.23549488054607506</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4">
         <v>10</v>
@@ -1525,15 +1525,15 @@
       <c r="D23" s="4">
         <v>7</v>
       </c>
-      <c r="E23" s="62"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>0.28865979333829311</v>
+        <v>0.38121546961325964</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="4">
         <v>36</v>
@@ -1544,15 +1544,15 @@
       <c r="D24" s="4">
         <v>25</v>
       </c>
-      <c r="E24" s="62"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>0.27250608226535877</v>
+        <v>0.36252189141856389</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="4">
         <v>29</v>
@@ -1563,15 +1563,15 @@
       <c r="D25" s="4">
         <v>18</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>0.33888048359546313</v>
+        <v>0.43763213530655387</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -1582,15 +1582,15 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>0.54901960726899912</v>
+        <v>0.64890282131661436</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="4">
         <v>59</v>
@@ -1601,15 +1601,15 @@
       <c r="D27" s="4">
         <v>18</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>0.64209664156375279</v>
+        <v>0.73144876325088337</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4">
         <v>51</v>
@@ -1620,15 +1620,15 @@
       <c r="D28" s="4">
         <v>23</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>0.4951219506398572</v>
+        <v>0.59820627802690585</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4">
         <v>30</v>
@@ -1639,15 +1639,15 @@
       <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>0.77860962526873523</v>
+        <v>0.84225352112676055</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4">
         <v>14</v>
@@ -1658,15 +1658,15 @@
       <c r="D30" s="4">
         <v>5</v>
       </c>
-      <c r="E30" s="62"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>0.57494866473105677</v>
+        <v>0.67251461988304095</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4">
         <v>37</v>
@@ -1677,15 +1677,15 @@
       <c r="D31" s="4">
         <v>23</v>
       </c>
-      <c r="E31" s="62"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>0.33653846102071006</v>
+        <v>0.43505674653215637</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="4">
         <v>38</v>
@@ -1696,16 +1696,16 @@
       <c r="D32" s="4">
         <v>35</v>
       </c>
-      <c r="E32" s="63"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="4">
         <f>(C32+1)/(C32+1+$E$9*(D32+1))</f>
-        <v>8.2717872793037314E-2</v>
+        <v>0.12041884816753926</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="35" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="4">
         <v>231</v>
@@ -1736,17 +1736,18 @@
       <c r="D35" s="4">
         <v>123</v>
       </c>
-      <c r="E35" s="61" t="s">
-        <v>7</v>
+      <c r="E35" s="64">
+        <f>224/276</f>
+        <v>0.81159420289855078</v>
       </c>
       <c r="F35" s="4">
         <f>(C35+1)/(C35+1+$E$9*(D35+1))</f>
-        <v>0.41637107719912675</v>
+        <v>0.51994469408918076</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="4">
         <v>269</v>
@@ -1757,16 +1758,16 @@
       <c r="D36" s="4">
         <v>153</v>
       </c>
-      <c r="E36" s="63"/>
+      <c r="E36" s="66"/>
       <c r="F36" s="4">
         <f>(C36+1)/(C36+1+$E$9*(D36+1))</f>
-        <v>0.38141809236243207</v>
+        <v>0.48350002994549918</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -1786,7 +1787,7 @@
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="4">
         <v>459</v>
@@ -1797,17 +1798,18 @@
       <c r="D39" s="4">
         <v>246</v>
       </c>
-      <c r="E39" s="61" t="s">
-        <v>7</v>
+      <c r="E39" s="64">
+        <f>224/276</f>
+        <v>0.81159420289855078</v>
       </c>
       <c r="F39" s="4">
         <f>(C39+1)/(C39+1+$E$9*(D39+1))</f>
-        <v>0.41285699464925385</v>
+        <v>0.51632981327365557</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -1818,15 +1820,15 @@
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="62"/>
+      <c r="E40" s="65"/>
       <c r="F40" s="4">
         <f t="shared" ref="F40:F41" si="3">(C40+1)/(C40+1+$E$9*(D40+1))</f>
-        <v>0.28865979333829311</v>
+        <v>0.38121546961325964</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4">
         <v>40</v>
@@ -1837,10 +1839,10 @@
       <c r="D41" s="4">
         <v>29</v>
       </c>
-      <c r="E41" s="63"/>
+      <c r="E41" s="66"/>
       <c r="F41" s="4">
         <f t="shared" si="3"/>
-        <v>0.24507658600424231</v>
+        <v>0.33014354066985646</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2002,7 @@
     </row>
     <row r="8" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -2012,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>1</v>
@@ -2026,7 +2028,7 @@
     </row>
     <row r="9" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4">
         <v>385</v>
@@ -2038,7 +2040,7 @@
         <v>193</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="4">
         <v>385</v>
@@ -2054,7 +2056,7 @@
     </row>
     <row r="10" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
         <v>114</v>
@@ -2066,7 +2068,7 @@
         <v>83</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="4">
         <v>114</v>
@@ -2082,7 +2084,7 @@
     </row>
     <row r="11" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -2094,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -2110,7 +2112,7 @@
     </row>
     <row r="12" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <f>SUM(C9:C11)</f>
@@ -2128,7 +2130,7 @@
     <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -2140,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>1</v>
@@ -2154,7 +2156,7 @@
     </row>
     <row r="15" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5">
         <f>SUM(D15:E15)</f>
@@ -2171,7 +2173,7 @@
         <v>105</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="5">
         <f>SUM(J15:K15)</f>
@@ -2188,7 +2190,7 @@
     </row>
     <row r="16" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>19</v>
@@ -2204,7 +2206,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="4">
         <v>19</v>
@@ -2220,7 +2222,7 @@
     </row>
     <row r="17" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4">
         <v>26</v>
@@ -2236,7 +2238,7 @@
         <v>26</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="4">
         <v>26</v>
@@ -2252,7 +2254,7 @@
     </row>
     <row r="18" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4">
         <v>43</v>
@@ -2268,7 +2270,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="4">
         <v>43</v>
@@ -2284,7 +2286,7 @@
     </row>
     <row r="19" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
@@ -2300,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="4">
         <v>10</v>
@@ -2316,7 +2318,7 @@
     </row>
     <row r="20" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4">
         <v>36</v>
@@ -2332,7 +2334,7 @@
         <v>36</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="4">
         <v>36</v>
@@ -2348,7 +2350,7 @@
     </row>
     <row r="21" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4">
         <v>29</v>
@@ -2364,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="4">
         <v>29</v>
@@ -2380,7 +2382,7 @@
     </row>
     <row r="22" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
@@ -2396,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="4">
         <v>3</v>
@@ -2412,7 +2414,7 @@
     </row>
     <row r="23" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4">
         <v>59</v>
@@ -2428,7 +2430,7 @@
         <v>59</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="4">
         <v>59</v>
@@ -2444,7 +2446,7 @@
     </row>
     <row r="24" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4">
         <v>51</v>
@@ -2460,7 +2462,7 @@
         <v>51</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="4">
         <v>51</v>
@@ -2476,7 +2478,7 @@
     </row>
     <row r="25" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
@@ -2492,7 +2494,7 @@
         <v>30</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" s="4">
         <v>30</v>
@@ -2508,7 +2510,7 @@
     </row>
     <row r="26" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4">
         <v>14</v>
@@ -2524,7 +2526,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="4">
         <v>14</v>
@@ -2540,7 +2542,7 @@
     </row>
     <row r="27" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4">
         <v>37</v>
@@ -2556,7 +2558,7 @@
         <v>37</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="4">
         <v>37</v>
@@ -2572,7 +2574,7 @@
     </row>
     <row r="28" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
         <v>38</v>
@@ -2588,7 +2590,7 @@
         <v>38</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28" s="4">
         <v>38</v>
@@ -2604,7 +2606,7 @@
     </row>
     <row r="29" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <f>SUM(C15:C28)</f>
@@ -2622,7 +2624,7 @@
     <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>1</v>
@@ -2648,7 +2650,7 @@
     </row>
     <row r="33" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4">
         <v>231</v>
@@ -2660,7 +2662,7 @@
         <v>123</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I33" s="4">
         <v>231</v>
@@ -2676,7 +2678,7 @@
     </row>
     <row r="34" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="4">
         <v>269</v>
@@ -2688,7 +2690,7 @@
         <v>153</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I34" s="4">
         <v>269</v>
@@ -2704,7 +2706,7 @@
     </row>
     <row r="35" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B35" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <f>SUM(C33:C34)</f>
@@ -2722,7 +2724,7 @@
     <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="2:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1</v>
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>1</v>
@@ -2748,7 +2750,7 @@
     </row>
     <row r="38" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="4">
         <v>459</v>
@@ -2760,7 +2762,7 @@
         <v>246</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I38" s="4">
         <v>459</v>
@@ -2776,7 +2778,7 @@
     </row>
     <row r="39" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -2788,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I39" s="4">
         <v>1</v>
@@ -2804,7 +2806,7 @@
     </row>
     <row r="40" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="4">
         <v>40</v>
@@ -2816,7 +2818,7 @@
         <v>29</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I40" s="4">
         <v>40</v>
@@ -2856,7 +2858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E869E46-6AB4-45DF-8F45-60D590E88082}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -2871,22 +2873,22 @@
     <row r="1" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E2" s="20"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="69"/>
+      <c r="I2" s="73"/>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="5:17" x14ac:dyDescent="0.35">
@@ -2904,12 +2906,12 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="71" t="s">
-        <v>37</v>
+      <c r="E4" s="75" t="s">
+        <v>36</v>
       </c>
       <c r="F4" s="28">
         <v>192</v>
@@ -2933,7 +2935,7 @@
       </c>
     </row>
     <row r="5" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="71"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="28">
         <v>31</v>
       </c>
@@ -2960,7 +2962,7 @@
       </c>
     </row>
     <row r="6" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="72"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="30">
         <v>1</v>
       </c>
@@ -2983,8 +2985,8 @@
       </c>
     </row>
     <row r="7" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="73" t="s">
-        <v>38</v>
+      <c r="E7" s="77" t="s">
+        <v>37</v>
       </c>
       <c r="F7" s="26">
         <v>192</v>
@@ -2999,7 +3001,7 @@
         <v>212.52</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="37">
         <f t="shared" si="0"/>
@@ -3011,7 +3013,7 @@
       </c>
     </row>
     <row r="8" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="74"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="27">
         <v>31</v>
       </c>
@@ -3038,7 +3040,7 @@
       </c>
     </row>
     <row r="9" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="75"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="27">
         <v>1</v>
       </c>
@@ -3061,8 +3063,8 @@
       </c>
     </row>
     <row r="10" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="76" t="s">
-        <v>40</v>
+      <c r="E10" s="80" t="s">
+        <v>39</v>
       </c>
       <c r="F10" s="24">
         <v>46</v>
@@ -3077,7 +3079,7 @@
         <v>57.96</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10" s="38">
         <f t="shared" si="0"/>
@@ -3089,7 +3091,7 @@
       </c>
     </row>
     <row r="11" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="77"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="25">
         <v>5</v>
       </c>
@@ -3112,7 +3114,7 @@
       </c>
     </row>
     <row r="12" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="77"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="25">
         <v>18</v>
       </c>
@@ -3135,7 +3137,7 @@
       </c>
     </row>
     <row r="13" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="77"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="25">
         <v>8</v>
       </c>
@@ -3158,7 +3160,7 @@
       </c>
     </row>
     <row r="14" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="77"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="25">
         <v>3</v>
       </c>
@@ -3181,7 +3183,7 @@
       </c>
     </row>
     <row r="15" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="77"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="25">
         <v>11</v>
       </c>
@@ -3204,7 +3206,7 @@
       </c>
     </row>
     <row r="16" spans="5:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="77"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="25">
         <v>11</v>
       </c>
@@ -3231,7 +3233,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="77"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="25">
         <v>2</v>
       </c>
@@ -3254,7 +3256,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="77"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="25">
         <v>41</v>
       </c>
@@ -3277,7 +3279,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="77"/>
+      <c r="E19" s="81"/>
       <c r="F19" s="25">
         <v>28</v>
       </c>
@@ -3300,7 +3302,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E20" s="77"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="25">
         <v>25</v>
       </c>
@@ -3323,7 +3325,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E21" s="77"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="25">
         <v>9</v>
       </c>
@@ -3346,7 +3348,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="77"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="25">
         <v>14</v>
       </c>
@@ -3369,7 +3371,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="78"/>
+      <c r="E23" s="82"/>
       <c r="F23" s="25">
         <v>3</v>
       </c>
@@ -3392,8 +3394,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="79" t="s">
-        <v>39</v>
+      <c r="E24" s="83" t="s">
+        <v>38</v>
       </c>
       <c r="F24" s="33">
         <v>108</v>
@@ -3408,7 +3410,7 @@
         <v>127.512</v>
       </c>
       <c r="L24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24" s="36">
         <f t="shared" si="0"/>
@@ -3424,7 +3426,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="80"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="32">
         <v>116</v>
       </c>
@@ -3447,8 +3449,8 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="65" t="s">
-        <v>41</v>
+      <c r="E26" s="68" t="s">
+        <v>40</v>
       </c>
       <c r="F26" s="34">
         <v>213</v>
@@ -3463,7 +3465,7 @@
         <v>253.36799999999999</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N26" s="39">
         <f t="shared" si="0"/>
@@ -3475,7 +3477,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E27" s="66"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="35">
         <v>0</v>
       </c>
@@ -3502,7 +3504,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="67"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="35">
         <v>11</v>
       </c>
@@ -3546,32 +3548,32 @@
     <row r="31" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="51"/>
       <c r="B31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="D31" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="E31" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="F31" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
+      <c r="H31" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
       <c r="M31" s="56"/>
     </row>
     <row r="32" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="52"/>
       <c r="C32" s="51">
@@ -3586,24 +3588,24 @@
       <c r="F32" s="51">
         <v>12.3947277830146</v>
       </c>
-      <c r="H32" s="86"/>
-      <c r="I32" s="87">
+      <c r="H32" s="59"/>
+      <c r="I32" s="60">
         <v>3.5694127797773601E-215</v>
       </c>
-      <c r="J32" s="87">
+      <c r="J32" s="60">
         <v>3.0163393228088701E-2</v>
       </c>
-      <c r="K32" s="87">
+      <c r="K32" s="60">
         <v>0.48115638256017301</v>
       </c>
-      <c r="L32" s="87">
+      <c r="L32" s="60">
         <v>1.4645106030140201E-2</v>
       </c>
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="54">
         <v>1000</v>
@@ -3618,24 +3620,24 @@
       <c r="F33" s="51">
         <v>12.3947277830146</v>
       </c>
-      <c r="H33" s="87">
+      <c r="H33" s="60">
         <v>3.5694127797773601E-215</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="87">
+      <c r="I33" s="59"/>
+      <c r="J33" s="60">
         <v>3.0163393228088701E-2</v>
       </c>
-      <c r="K33" s="87">
+      <c r="K33" s="60">
         <v>0.48115638256017301</v>
       </c>
-      <c r="L33" s="87">
+      <c r="L33" s="60">
         <v>1.4645106030140201E-2</v>
       </c>
       <c r="M33" s="56"/>
     </row>
     <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="51">
         <v>41.1226729508641</v>
@@ -3650,24 +3652,24 @@
       <c r="F34" s="51">
         <v>50.711183676054297</v>
       </c>
-      <c r="H34" s="87">
+      <c r="H34" s="60">
         <v>3.0163393228088701E-2</v>
       </c>
-      <c r="I34" s="87">
+      <c r="I34" s="60">
         <v>3.0163393228088701E-2</v>
       </c>
-      <c r="J34" s="86"/>
-      <c r="K34" s="87">
+      <c r="J34" s="59"/>
+      <c r="K34" s="60">
         <v>2.2130701471326598E-2</v>
       </c>
-      <c r="L34" s="87">
+      <c r="L34" s="60">
         <v>2.5832896720448801E-3</v>
       </c>
       <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="54">
         <v>1.4631258840971999</v>
@@ -3682,24 +3684,24 @@
       <c r="F35" s="51">
         <v>1.1009297764892101</v>
       </c>
-      <c r="H35" s="85">
+      <c r="H35" s="58">
         <v>0.48115638256017301</v>
       </c>
-      <c r="I35" s="87">
+      <c r="I35" s="60">
         <v>0.48115638256017301</v>
       </c>
-      <c r="J35" s="87">
+      <c r="J35" s="60">
         <v>2.2130701471326598E-2</v>
       </c>
-      <c r="K35" s="86"/>
-      <c r="L35" s="87">
+      <c r="K35" s="59"/>
+      <c r="L35" s="60">
         <v>0.57668165553175799</v>
       </c>
       <c r="M35" s="56"/>
     </row>
     <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="51">
         <v>12.3947277830146</v>
@@ -3714,19 +3716,19 @@
         <v>1.1009297764892101</v>
       </c>
       <c r="F36" s="52"/>
-      <c r="H36" s="85">
+      <c r="H36" s="58">
         <v>1.4645106030140201E-2</v>
       </c>
-      <c r="I36" s="87">
+      <c r="I36" s="60">
         <v>1.4645106030140201E-2</v>
       </c>
-      <c r="J36" s="87">
+      <c r="J36" s="60">
         <v>2.5832896720448801E-3</v>
       </c>
-      <c r="K36" s="87">
+      <c r="K36" s="60">
         <v>0.57668165553175799</v>
       </c>
-      <c r="L36" s="86"/>
+      <c r="L36" s="59"/>
       <c r="M36" s="56"/>
     </row>
     <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3735,32 +3737,32 @@
     <row r="38" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="42"/>
       <c r="B38" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="D38" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="E38" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="F38" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
+      <c r="H38" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
       <c r="M38" s="56"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="47">
@@ -3768,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="47">
-        <f t="shared" ref="D39:F39" si="2">IF(J32&lt;0.05,1,0)</f>
+        <f t="shared" ref="D39" si="2">IF(J32&lt;0.05,1,0)</f>
         <v>1</v>
       </c>
       <c r="E39" s="47">
@@ -3796,7 +3798,7 @@
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="47">
         <f>IF(H33&lt;0.05,1,0)</f>
@@ -3832,7 +3834,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="47">
         <f t="shared" ref="B41:E43" si="8">IF(H34&lt;0.05,1,0)</f>
@@ -3868,7 +3870,7 @@
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="47">
         <f t="shared" si="8"/>
@@ -3904,7 +3906,7 @@
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="47">
         <f t="shared" si="8"/>
@@ -3972,7 +3974,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD7D50B-4FE9-4128-850C-FCA00D91FE31}">
-  <dimension ref="B1:G26"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:G17"/>
@@ -3988,36 +3990,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="49"/>
       <c r="C2" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>57</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="49">
@@ -4035,7 +4037,7 @@
     </row>
     <row r="4" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="54">
         <v>0.35644258436627702</v>
@@ -4053,7 +4055,7 @@
     </row>
     <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="49">
         <v>0.2074528328345</v>
@@ -4071,7 +4073,7 @@
     </row>
     <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="49">
         <v>0.37463382774968701</v>
@@ -4089,7 +4091,7 @@
     </row>
     <row r="7" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="49">
         <v>0.143319093720982</v>
@@ -4106,36 +4108,36 @@
       <c r="G7" s="50"/>
     </row>
     <row r="11" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
+      <c r="B11" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="E12" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="F12" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="G12" s="51" t="s">
         <v>57</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="51">
@@ -4153,7 +4155,7 @@
     </row>
     <row r="14" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="53">
         <v>0.190750300527182</v>
@@ -4171,7 +4173,7 @@
     </row>
     <row r="15" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="51">
         <v>0.149953540927968</v>
@@ -4189,7 +4191,7 @@
     </row>
     <row r="16" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="51">
         <v>0.20203019720659901</v>
@@ -4207,7 +4209,7 @@
     </row>
     <row r="17" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="51">
         <v>0.10239901604084201</v>
@@ -4224,14 +4226,13 @@
       <c r="G17" s="52"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.5" x14ac:dyDescent="0.35"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B11:G11"/>
@@ -4262,238 +4263,238 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
+      <c r="D2" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
     </row>
     <row r="3" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D3" s="51"/>
       <c r="E3" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="G3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="H3" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="I3" s="51" t="s">
         <v>57</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D4" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="H4" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="I4" s="57" t="s">
         <v>65</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D5" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D6" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="G6" s="52"/>
       <c r="H6" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D7" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D8" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>67</v>
-      </c>
       <c r="G8" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="13" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D13" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="13" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D13" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
     </row>
     <row r="14" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D14" s="51"/>
       <c r="E14" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="G14" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="H14" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="I14" s="51" t="s">
         <v>51</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D15" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="I15" s="57" t="s">
         <v>72</v>
-      </c>
-      <c r="I15" s="57" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D16" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="52"/>
       <c r="G16" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="I16" s="57" t="s">
         <v>75</v>
-      </c>
-      <c r="I16" s="57" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D17" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="52"/>
       <c r="H17" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="51" t="s">
         <v>77</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D18" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="4:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D19" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="51" t="s">
         <v>78</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>79</v>
       </c>
       <c r="I19" s="52"/>
     </row>
